--- a/teaching/traditional_assets/database/data/ivory_coast/ivory_coast_air_transport.xlsx
+++ b/teaching/traditional_assets/database/data/ivory_coast/ivory_coast_air_transport.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="brvm_abjc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,94 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.133</v>
+        <v>0.113</v>
       </c>
       <c r="E2">
-        <v>0.09369999999999999</v>
+        <v>0.0418</v>
       </c>
       <c r="G2">
-        <v>0.1910313901345291</v>
+        <v>0.1837719298245614</v>
       </c>
       <c r="H2">
-        <v>0.1910313901345291</v>
+        <v>0.1837719298245614</v>
       </c>
       <c r="I2">
-        <v>0.1753363228699552</v>
+        <v>0.1495614035087719</v>
       </c>
       <c r="J2">
-        <v>0.1309583949971626</v>
+        <v>0.1129684261084989</v>
       </c>
       <c r="K2">
-        <v>3.01</v>
+        <v>2.62</v>
       </c>
       <c r="L2">
-        <v>0.1349775784753363</v>
+        <v>0.1149122807017544</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.305343511450382</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.305343511450382</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.2043650793650794</v>
+      </c>
+      <c r="W2">
+        <v>0.3337579617834395</v>
       </c>
       <c r="X2">
-        <v>0.07621278827869579</v>
+        <v>0.08482833642492625</v>
+      </c>
+      <c r="Y2">
+        <v>0.2489296253585133</v>
+      </c>
+      <c r="Z2">
+        <v>5.414390881025884</v>
+      </c>
+      <c r="AA2">
+        <v>0.6116552161657031</v>
       </c>
       <c r="AB2">
-        <v>0.07621278827869579</v>
+        <v>0.08468379690296816</v>
+      </c>
+      <c r="AC2">
+        <v>0.5269714192627349</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>-5.055000000000001</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.003755682941292746</v>
+      </c>
+      <c r="AI2">
+        <v>0.01358112937812723</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>-0.2509307520476545</v>
+      </c>
+      <c r="AK2">
+        <v>-2.739837398373985</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="AM2">
-        <v>-0.112</v>
+        <v>-0.04500000000000001</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.02267303102625298</v>
+      </c>
+      <c r="AO2">
+        <v>136.4</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-1.206443914081146</v>
       </c>
       <c r="AQ2">
-        <v>-34.91071428571428</v>
+        <v>-75.77777777777777</v>
       </c>
     </row>
     <row r="3">
@@ -698,94 +727,8839 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.133</v>
+        <v>0.113</v>
       </c>
       <c r="E3">
-        <v>0.09369999999999999</v>
+        <v>0.0418</v>
       </c>
       <c r="G3">
-        <v>0.1910313901345291</v>
+        <v>0.1837719298245614</v>
       </c>
       <c r="H3">
-        <v>0.1910313901345291</v>
+        <v>0.1837719298245614</v>
       </c>
       <c r="I3">
-        <v>0.1753363228699552</v>
+        <v>0.1495614035087719</v>
       </c>
       <c r="J3">
-        <v>0.1309583949971626</v>
+        <v>0.1129684261084989</v>
       </c>
       <c r="K3">
-        <v>3.01</v>
+        <v>2.62</v>
       </c>
       <c r="L3">
-        <v>0.1349775784753363</v>
+        <v>0.1149122807017544</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>3.42</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>1.305343511450382</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>3.42</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>1.305343511450382</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.2043650793650794</v>
+      </c>
+      <c r="W3">
+        <v>0.3337579617834395</v>
       </c>
       <c r="X3">
-        <v>0.07621278827869579</v>
+        <v>0.08482833642492625</v>
+      </c>
+      <c r="Y3">
+        <v>0.2489296253585133</v>
+      </c>
+      <c r="Z3">
+        <v>5.414390881025884</v>
+      </c>
+      <c r="AA3">
+        <v>0.6116552161657031</v>
       </c>
       <c r="AB3">
-        <v>0.07621278827869579</v>
+        <v>0.08468379690296816</v>
+      </c>
+      <c r="AC3">
+        <v>0.5269714192627349</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-5.055000000000001</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.003755682941292746</v>
+      </c>
+      <c r="AI3">
+        <v>0.01358112937812723</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-0.2509307520476545</v>
+      </c>
+      <c r="AK3">
+        <v>-2.739837398373985</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="AM3">
-        <v>-0.112</v>
+        <v>-0.04500000000000001</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.02267303102625298</v>
+      </c>
+      <c r="AO3">
+        <v>136.4</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-1.206443914081146</v>
       </c>
       <c r="AQ3">
-        <v>-34.91071428571428</v>
+        <v>-75.77777777777777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Servair Abidjan S.A. (BRVM:ABJC)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BRVM:ABJC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Air Transport</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.00375568294129275</v>
+      </c>
+      <c r="F2">
+        <v>0.99</v>
+      </c>
+      <c r="G2">
+        <v>25.2</v>
+      </c>
+      <c r="H2">
+        <v>2.05340972516199</v>
+      </c>
+      <c r="I2">
+        <v>20.145</v>
+      </c>
+      <c r="J2">
+        <v>21.945459725162</v>
+      </c>
+      <c r="K2">
+        <v>0.095</v>
+      </c>
+      <c r="L2">
+        <v>25.04205</v>
+      </c>
+      <c r="M2">
+        <v>0.08468379690296821</v>
+      </c>
+      <c r="N2">
+        <v>0.0724345818197903</v>
+      </c>
+      <c r="O2">
+        <v>0.0463427868677714</v>
+      </c>
+      <c r="P2">
+        <v>0.015825</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.08482833642492631</v>
+      </c>
+      <c r="T2">
+        <v>5.67678318197903</v>
+      </c>
+      <c r="U2">
+        <v>0.920384302933722</v>
+      </c>
+      <c r="V2">
+        <v>69.0636495485271</v>
+      </c>
+      <c r="W2">
+        <v>6.461170226371187</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>25.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.08206173897596897</v>
+      </c>
+      <c r="AC2">
+        <v>0.06179038249036188</v>
+      </c>
+      <c r="AD2">
+        <v>0.25</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>4.19</v>
+      </c>
+      <c r="AH2">
+        <v>0.776</v>
+      </c>
+      <c r="AI2">
+        <v>0.121</v>
+      </c>
+      <c r="AJ2">
+        <v>0.095</v>
+      </c>
+      <c r="AK2">
+        <v>0.095</v>
+      </c>
+      <c r="AL2">
+        <v>0.025</v>
+      </c>
+      <c r="AM2">
+        <v>0.095</v>
+      </c>
+      <c r="AN2">
+        <v>5.15</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.08461539112264496</v>
+      </c>
+      <c r="C2">
+        <v>25.30423399351647</v>
+      </c>
+      <c r="D2">
+        <v>20.15423399351647</v>
+      </c>
+      <c r="E2">
+        <v>-0.095</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5.15</v>
+      </c>
+      <c r="H2">
+        <v>25.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>4.19</v>
+      </c>
+      <c r="K2">
+        <v>0.776</v>
+      </c>
+      <c r="L2">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.8535000000000001</v>
+      </c>
+      <c r="P2">
+        <v>2.5605</v>
+      </c>
+      <c r="Q2">
+        <v>3.3365</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.08461539112264496</v>
+      </c>
+      <c r="T2">
+        <v>0.9177893627711251</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.25</v>
+      </c>
+      <c r="W2">
+        <v>0.01215</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.08445560264483834</v>
+      </c>
+      <c r="C3">
+        <v>25.07288661738726</v>
+      </c>
+      <c r="D3">
+        <v>20.17583661738726</v>
+      </c>
+      <c r="E3">
+        <v>0.15795</v>
+      </c>
+      <c r="F3">
+        <v>0.25295</v>
+      </c>
+      <c r="G3">
+        <v>5.15</v>
+      </c>
+      <c r="H3">
+        <v>25.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4.19</v>
+      </c>
+      <c r="K3">
+        <v>0.776</v>
+      </c>
+      <c r="L3">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.00409779</v>
+      </c>
+      <c r="N3">
+        <v>3.409902210000001</v>
+      </c>
+      <c r="O3">
+        <v>0.8524755525000002</v>
+      </c>
+      <c r="P3">
+        <v>2.557426657500001</v>
+      </c>
+      <c r="Q3">
+        <v>3.3334266575</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.08518596226751347</v>
+      </c>
+      <c r="T3">
+        <v>0.9247423124890881</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <v>0.01215</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>833.1320053004183</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.08429581416703173</v>
+      </c>
+      <c r="C4">
+        <v>24.84158560115503</v>
+      </c>
+      <c r="D4">
+        <v>20.19748560115503</v>
+      </c>
+      <c r="E4">
+        <v>0.4109</v>
+      </c>
+      <c r="F4">
+        <v>0.5059</v>
+      </c>
+      <c r="G4">
+        <v>5.15</v>
+      </c>
+      <c r="H4">
+        <v>25.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>4.19</v>
+      </c>
+      <c r="K4">
+        <v>0.776</v>
+      </c>
+      <c r="L4">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.008195579999999999</v>
+      </c>
+      <c r="N4">
+        <v>3.40580442</v>
+      </c>
+      <c r="O4">
+        <v>0.8514511050000001</v>
+      </c>
+      <c r="P4">
+        <v>2.554353315</v>
+      </c>
+      <c r="Q4">
+        <v>3.330353315</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.08576817772146096</v>
+      </c>
+      <c r="T4">
+        <v>0.9318371591400709</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <v>0.01215</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>416.5660026502091</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.08413602568922512</v>
+      </c>
+      <c r="C5">
+        <v>24.61033109421473</v>
+      </c>
+      <c r="D5">
+        <v>20.21918109421473</v>
+      </c>
+      <c r="E5">
+        <v>0.6638499999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.7588499999999999</v>
+      </c>
+      <c r="G5">
+        <v>5.15</v>
+      </c>
+      <c r="H5">
+        <v>25.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4.19</v>
+      </c>
+      <c r="K5">
+        <v>0.776</v>
+      </c>
+      <c r="L5">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.01229337</v>
+      </c>
+      <c r="N5">
+        <v>3.401706630000001</v>
+      </c>
+      <c r="O5">
+        <v>0.8504266575000001</v>
+      </c>
+      <c r="P5">
+        <v>2.551279972500001</v>
+      </c>
+      <c r="Q5">
+        <v>3.3272799725</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.08636239761775785</v>
+      </c>
+      <c r="T5">
+        <v>0.939078291289012</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <v>0.01215</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>277.7106684334728</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.0839762372114185</v>
+      </c>
+      <c r="C6">
+        <v>24.37912324660392</v>
+      </c>
+      <c r="D6">
+        <v>20.24092324660392</v>
+      </c>
+      <c r="E6">
+        <v>0.9168000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.0118</v>
+      </c>
+      <c r="G6">
+        <v>5.15</v>
+      </c>
+      <c r="H6">
+        <v>25.2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4.19</v>
+      </c>
+      <c r="K6">
+        <v>0.776</v>
+      </c>
+      <c r="L6">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.01639116</v>
+      </c>
+      <c r="N6">
+        <v>3.397608840000001</v>
+      </c>
+      <c r="O6">
+        <v>0.8494022100000002</v>
+      </c>
+      <c r="P6">
+        <v>2.548206630000001</v>
+      </c>
+      <c r="Q6">
+        <v>3.324206630000001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.08696899709522761</v>
+      </c>
+      <c r="T6">
+        <v>0.9464702803577227</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.25</v>
+      </c>
+      <c r="W6">
+        <v>0.01215</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>208.2830013251046</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.0838164487336119</v>
+      </c>
+      <c r="C7">
+        <v>24.14796220900618</v>
+      </c>
+      <c r="D7">
+        <v>20.26271220900618</v>
+      </c>
+      <c r="E7">
+        <v>1.16975</v>
+      </c>
+      <c r="F7">
+        <v>1.26475</v>
+      </c>
+      <c r="G7">
+        <v>5.15</v>
+      </c>
+      <c r="H7">
+        <v>25.2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4.19</v>
+      </c>
+      <c r="K7">
+        <v>0.776</v>
+      </c>
+      <c r="L7">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.02048895</v>
+      </c>
+      <c r="N7">
+        <v>3.393511050000001</v>
+      </c>
+      <c r="O7">
+        <v>0.8483777625000002</v>
+      </c>
+      <c r="P7">
+        <v>2.545133287500001</v>
+      </c>
+      <c r="Q7">
+        <v>3.3211332875</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.08758836708801253</v>
+      </c>
+      <c r="T7">
+        <v>0.9540178902489327</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.25</v>
+      </c>
+      <c r="W7">
+        <v>0.01215</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>166.6264010600837</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.08365666025580527</v>
+      </c>
+      <c r="C8">
+        <v>23.91684813275466</v>
+      </c>
+      <c r="D8">
+        <v>20.28454813275465</v>
+      </c>
+      <c r="E8">
+        <v>1.4227</v>
+      </c>
+      <c r="F8">
+        <v>1.5177</v>
+      </c>
+      <c r="G8">
+        <v>5.15</v>
+      </c>
+      <c r="H8">
+        <v>25.2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4.19</v>
+      </c>
+      <c r="K8">
+        <v>0.776</v>
+      </c>
+      <c r="L8">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.02458674</v>
+      </c>
+      <c r="N8">
+        <v>3.38941326</v>
+      </c>
+      <c r="O8">
+        <v>0.8473533150000001</v>
+      </c>
+      <c r="P8">
+        <v>2.542059945</v>
+      </c>
+      <c r="Q8">
+        <v>3.318059945</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.0882209151657503</v>
+      </c>
+      <c r="T8">
+        <v>0.9617260875846364</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.25</v>
+      </c>
+      <c r="W8">
+        <v>0.01215</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>138.8553342167364</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.08349687177799868</v>
+      </c>
+      <c r="C9">
+        <v>23.68578116983549</v>
+      </c>
+      <c r="D9">
+        <v>20.30643116983549</v>
+      </c>
+      <c r="E9">
+        <v>1.67565</v>
+      </c>
+      <c r="F9">
+        <v>1.77065</v>
+      </c>
+      <c r="G9">
+        <v>5.15</v>
+      </c>
+      <c r="H9">
+        <v>25.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4.19</v>
+      </c>
+      <c r="K9">
+        <v>0.776</v>
+      </c>
+      <c r="L9">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.02868453</v>
+      </c>
+      <c r="N9">
+        <v>3.385315470000001</v>
+      </c>
+      <c r="O9">
+        <v>0.8463288675000001</v>
+      </c>
+      <c r="P9">
+        <v>2.538986602500001</v>
+      </c>
+      <c r="Q9">
+        <v>3.3149866025</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.08886706642795557</v>
+      </c>
+      <c r="T9">
+        <v>0.9696000526049789</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.25</v>
+      </c>
+      <c r="W9">
+        <v>0.01215</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>119.0188579000597</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.08333708330019207</v>
+      </c>
+      <c r="C10">
+        <v>23.45476147289143</v>
+      </c>
+      <c r="D10">
+        <v>20.32836147289143</v>
+      </c>
+      <c r="E10">
+        <v>1.9286</v>
+      </c>
+      <c r="F10">
+        <v>2.0236</v>
+      </c>
+      <c r="G10">
+        <v>5.15</v>
+      </c>
+      <c r="H10">
+        <v>25.2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4.19</v>
+      </c>
+      <c r="K10">
+        <v>0.776</v>
+      </c>
+      <c r="L10">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.03278232</v>
+      </c>
+      <c r="N10">
+        <v>3.381217680000001</v>
+      </c>
+      <c r="O10">
+        <v>0.8453044200000002</v>
+      </c>
+      <c r="P10">
+        <v>2.535913260000001</v>
+      </c>
+      <c r="Q10">
+        <v>3.311913260000001</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.08952726445673051</v>
+      </c>
+      <c r="T10">
+        <v>0.9776451907779377</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.25</v>
+      </c>
+      <c r="W10">
+        <v>0.01215</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>104.1415006625523</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.08317729482238545</v>
+      </c>
+      <c r="C11">
+        <v>23.22378919522529</v>
+      </c>
+      <c r="D11">
+        <v>20.3503391952253</v>
+      </c>
+      <c r="E11">
+        <v>2.18155</v>
+      </c>
+      <c r="F11">
+        <v>2.27655</v>
+      </c>
+      <c r="G11">
+        <v>5.15</v>
+      </c>
+      <c r="H11">
+        <v>25.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>4.19</v>
+      </c>
+      <c r="K11">
+        <v>0.776</v>
+      </c>
+      <c r="L11">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.03688010999999999</v>
+      </c>
+      <c r="N11">
+        <v>3.377119890000001</v>
+      </c>
+      <c r="O11">
+        <v>0.8442799725000002</v>
+      </c>
+      <c r="P11">
+        <v>2.5328399175</v>
+      </c>
+      <c r="Q11">
+        <v>3.3088399175</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0902019723322917</v>
+      </c>
+      <c r="T11">
+        <v>0.9858671451744777</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.25</v>
+      </c>
+      <c r="W11">
+        <v>0.01215</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>92.57022281115759</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.08301750634457883</v>
+      </c>
+      <c r="C12">
+        <v>22.9928644908036</v>
+      </c>
+      <c r="D12">
+        <v>20.37236449080361</v>
+      </c>
+      <c r="E12">
+        <v>2.4345</v>
+      </c>
+      <c r="F12">
+        <v>2.5295</v>
+      </c>
+      <c r="G12">
+        <v>5.15</v>
+      </c>
+      <c r="H12">
+        <v>25.2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4.19</v>
+      </c>
+      <c r="K12">
+        <v>0.776</v>
+      </c>
+      <c r="L12">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.0409779</v>
+      </c>
+      <c r="N12">
+        <v>3.3730221</v>
+      </c>
+      <c r="O12">
+        <v>0.8432555250000001</v>
+      </c>
+      <c r="P12">
+        <v>2.529766575</v>
+      </c>
+      <c r="Q12">
+        <v>3.305766575000001</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.0908916737161987</v>
+      </c>
+      <c r="T12">
+        <v>0.9942718096687188</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.25</v>
+      </c>
+      <c r="W12">
+        <v>0.01215</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>83.31320053004183</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.08285771786677223</v>
+      </c>
+      <c r="C13">
+        <v>22.76198751426015</v>
+      </c>
+      <c r="D13">
+        <v>20.39443751426015</v>
+      </c>
+      <c r="E13">
+        <v>2.68745</v>
+      </c>
+      <c r="F13">
+        <v>2.78245</v>
+      </c>
+      <c r="G13">
+        <v>5.15</v>
+      </c>
+      <c r="H13">
+        <v>25.2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4.19</v>
+      </c>
+      <c r="K13">
+        <v>0.776</v>
+      </c>
+      <c r="L13">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.04507568999999999</v>
+      </c>
+      <c r="N13">
+        <v>3.368924310000001</v>
+      </c>
+      <c r="O13">
+        <v>0.8422310775000001</v>
+      </c>
+      <c r="P13">
+        <v>2.5266932325</v>
+      </c>
+      <c r="Q13">
+        <v>3.3026932325</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.09159687400760924</v>
+      </c>
+      <c r="T13">
+        <v>1.002865343027999</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.25</v>
+      </c>
+      <c r="W13">
+        <v>0.01215</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>75.73927320912894</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.08269792938896561</v>
+      </c>
+      <c r="C14">
+        <v>22.53115842089964</v>
+      </c>
+      <c r="D14">
+        <v>20.41655842089964</v>
+      </c>
+      <c r="E14">
+        <v>2.940399999999999</v>
+      </c>
+      <c r="F14">
+        <v>3.0354</v>
+      </c>
+      <c r="G14">
+        <v>5.15</v>
+      </c>
+      <c r="H14">
+        <v>25.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4.19</v>
+      </c>
+      <c r="K14">
+        <v>0.776</v>
+      </c>
+      <c r="L14">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.04917347999999999</v>
+      </c>
+      <c r="N14">
+        <v>3.364826520000001</v>
+      </c>
+      <c r="O14">
+        <v>0.8412066300000002</v>
+      </c>
+      <c r="P14">
+        <v>2.52361989</v>
+      </c>
+      <c r="Q14">
+        <v>3.299619890000001</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.09231810157837002</v>
+      </c>
+      <c r="T14">
+        <v>1.011654183963627</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.25</v>
+      </c>
+      <c r="W14">
+        <v>0.01215</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>69.4276671083682</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.08253814091115899</v>
+      </c>
+      <c r="C15">
+        <v>22.30037736670128</v>
+      </c>
+      <c r="D15">
+        <v>20.43872736670128</v>
+      </c>
+      <c r="E15">
+        <v>3.19335</v>
+      </c>
+      <c r="F15">
+        <v>3.28835</v>
+      </c>
+      <c r="G15">
+        <v>5.15</v>
+      </c>
+      <c r="H15">
+        <v>25.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4.19</v>
+      </c>
+      <c r="K15">
+        <v>0.776</v>
+      </c>
+      <c r="L15">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.05327127</v>
+      </c>
+      <c r="N15">
+        <v>3.36072873</v>
+      </c>
+      <c r="O15">
+        <v>0.8401821825000001</v>
+      </c>
+      <c r="P15">
+        <v>2.5205465475</v>
+      </c>
+      <c r="Q15">
+        <v>3.2965465475</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.0930559090932862</v>
+      </c>
+      <c r="T15">
+        <v>1.020645067219613</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.25</v>
+      </c>
+      <c r="W15">
+        <v>0.01215</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>64.08707733080141</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.08237835243335238</v>
+      </c>
+      <c r="C16">
+        <v>22.06964450832252</v>
+      </c>
+      <c r="D16">
+        <v>20.46094450832252</v>
+      </c>
+      <c r="E16">
+        <v>3.4463</v>
+      </c>
+      <c r="F16">
+        <v>3.5413</v>
+      </c>
+      <c r="G16">
+        <v>5.15</v>
+      </c>
+      <c r="H16">
+        <v>25.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4.19</v>
+      </c>
+      <c r="K16">
+        <v>0.776</v>
+      </c>
+      <c r="L16">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.05736906</v>
+      </c>
+      <c r="N16">
+        <v>3.356630940000001</v>
+      </c>
+      <c r="O16">
+        <v>0.8391577350000001</v>
+      </c>
+      <c r="P16">
+        <v>2.517473205</v>
+      </c>
+      <c r="Q16">
+        <v>3.293473205000001</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.09381087492250278</v>
+      </c>
+      <c r="T16">
+        <v>1.029845040783879</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.25</v>
+      </c>
+      <c r="W16">
+        <v>0.01215</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>59.50942895002987</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08221856395554578</v>
+      </c>
+      <c r="C17">
+        <v>21.83896000310269</v>
+      </c>
+      <c r="D17">
+        <v>20.48321000310269</v>
+      </c>
+      <c r="E17">
+        <v>3.699249999999999</v>
+      </c>
+      <c r="F17">
+        <v>3.794249999999999</v>
+      </c>
+      <c r="G17">
+        <v>5.15</v>
+      </c>
+      <c r="H17">
+        <v>25.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4.19</v>
+      </c>
+      <c r="K17">
+        <v>0.776</v>
+      </c>
+      <c r="L17">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.06146684999999999</v>
+      </c>
+      <c r="N17">
+        <v>3.352533150000001</v>
+      </c>
+      <c r="O17">
+        <v>0.8381332875000002</v>
+      </c>
+      <c r="P17">
+        <v>2.5143998625</v>
+      </c>
+      <c r="Q17">
+        <v>3.2903998625</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.09458360465358326</v>
+      </c>
+      <c r="T17">
+        <v>1.039261484314362</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.25</v>
+      </c>
+      <c r="W17">
+        <v>0.01215</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>55.54213368669456</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.08205877547773917</v>
+      </c>
+      <c r="C18">
+        <v>21.60832400906672</v>
+      </c>
+      <c r="D18">
+        <v>20.50552400906671</v>
+      </c>
+      <c r="E18">
+        <v>3.9522</v>
+      </c>
+      <c r="F18">
+        <v>4.0472</v>
+      </c>
+      <c r="G18">
+        <v>5.15</v>
+      </c>
+      <c r="H18">
+        <v>25.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4.19</v>
+      </c>
+      <c r="K18">
+        <v>0.776</v>
+      </c>
+      <c r="L18">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.06556463999999999</v>
+      </c>
+      <c r="N18">
+        <v>3.348435360000001</v>
+      </c>
+      <c r="O18">
+        <v>0.8371088400000002</v>
+      </c>
+      <c r="P18">
+        <v>2.511326520000001</v>
+      </c>
+      <c r="Q18">
+        <v>3.287326520000001</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.09537473271159425</v>
+      </c>
+      <c r="T18">
+        <v>1.048902128881286</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.25</v>
+      </c>
+      <c r="W18">
+        <v>0.01215</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>52.07075033127614</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08189898699993256</v>
+      </c>
+      <c r="C19">
+        <v>21.3777366849289</v>
+      </c>
+      <c r="D19">
+        <v>20.5278866849289</v>
+      </c>
+      <c r="E19">
+        <v>4.205150000000001</v>
+      </c>
+      <c r="F19">
+        <v>4.30015</v>
+      </c>
+      <c r="G19">
+        <v>5.15</v>
+      </c>
+      <c r="H19">
+        <v>25.2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4.19</v>
+      </c>
+      <c r="K19">
+        <v>0.776</v>
+      </c>
+      <c r="L19">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M19">
+        <v>0.06966243</v>
+      </c>
+      <c r="N19">
+        <v>3.34433757</v>
+      </c>
+      <c r="O19">
+        <v>0.8360843925000001</v>
+      </c>
+      <c r="P19">
+        <v>2.5082531775</v>
+      </c>
+      <c r="Q19">
+        <v>3.2842531775</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.09618492409630429</v>
+      </c>
+      <c r="T19">
+        <v>1.058775078136569</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.25</v>
+      </c>
+      <c r="W19">
+        <v>0.01215</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>49.00776501767166</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08173919852212592</v>
+      </c>
+      <c r="C20">
+        <v>21.14719819009665</v>
+      </c>
+      <c r="D20">
+        <v>20.55029819009664</v>
+      </c>
+      <c r="E20">
+        <v>4.4581</v>
+      </c>
+      <c r="F20">
+        <v>4.5531</v>
+      </c>
+      <c r="G20">
+        <v>5.15</v>
+      </c>
+      <c r="H20">
+        <v>25.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>4.19</v>
+      </c>
+      <c r="K20">
+        <v>0.776</v>
+      </c>
+      <c r="L20">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.07376021999999999</v>
+      </c>
+      <c r="N20">
+        <v>3.340239780000001</v>
+      </c>
+      <c r="O20">
+        <v>0.8350599450000001</v>
+      </c>
+      <c r="P20">
+        <v>2.505179835</v>
+      </c>
+      <c r="Q20">
+        <v>3.281179835000001</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.09701487624649503</v>
+      </c>
+      <c r="T20">
+        <v>1.068888831032225</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.25</v>
+      </c>
+      <c r="W20">
+        <v>0.01215</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>46.2851114055788</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08157941004431934</v>
+      </c>
+      <c r="C21">
+        <v>20.91670868467423</v>
+      </c>
+      <c r="D21">
+        <v>20.57275868467423</v>
+      </c>
+      <c r="E21">
+        <v>4.71105</v>
+      </c>
+      <c r="F21">
+        <v>4.80605</v>
+      </c>
+      <c r="G21">
+        <v>5.15</v>
+      </c>
+      <c r="H21">
+        <v>25.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>4.19</v>
+      </c>
+      <c r="K21">
+        <v>0.776</v>
+      </c>
+      <c r="L21">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.07785800999999999</v>
+      </c>
+      <c r="N21">
+        <v>3.336141990000001</v>
+      </c>
+      <c r="O21">
+        <v>0.8340354975000002</v>
+      </c>
+      <c r="P21">
+        <v>2.5021064925</v>
+      </c>
+      <c r="Q21">
+        <v>3.2781064925</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.09786532104236954</v>
+      </c>
+      <c r="T21">
+        <v>1.079252306221601</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.25</v>
+      </c>
+      <c r="W21">
+        <v>0.01215</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>43.84905291054833</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08141962156651272</v>
+      </c>
+      <c r="C22">
+        <v>20.68626832946667</v>
+      </c>
+      <c r="D22">
+        <v>20.59526832946668</v>
+      </c>
+      <c r="E22">
+        <v>4.964</v>
+      </c>
+      <c r="F22">
+        <v>5.059</v>
+      </c>
+      <c r="G22">
+        <v>5.15</v>
+      </c>
+      <c r="H22">
+        <v>25.2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>4.19</v>
+      </c>
+      <c r="K22">
+        <v>0.776</v>
+      </c>
+      <c r="L22">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.0819558</v>
+      </c>
+      <c r="N22">
+        <v>3.332044200000001</v>
+      </c>
+      <c r="O22">
+        <v>0.8330110500000002</v>
+      </c>
+      <c r="P22">
+        <v>2.499033150000001</v>
+      </c>
+      <c r="Q22">
+        <v>3.275033150000001</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.09873702695814089</v>
+      </c>
+      <c r="T22">
+        <v>1.089874868290711</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.25</v>
+      </c>
+      <c r="W22">
+        <v>0.01215</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>41.65660026502091</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.0812598330887061</v>
+      </c>
+      <c r="C23">
+        <v>20.45587728598354</v>
+      </c>
+      <c r="D23">
+        <v>20.61782728598354</v>
+      </c>
+      <c r="E23">
+        <v>5.21695</v>
+      </c>
+      <c r="F23">
+        <v>5.31195</v>
+      </c>
+      <c r="G23">
+        <v>5.15</v>
+      </c>
+      <c r="H23">
+        <v>25.2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>4.19</v>
+      </c>
+      <c r="K23">
+        <v>0.776</v>
+      </c>
+      <c r="L23">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.08605358999999999</v>
+      </c>
+      <c r="N23">
+        <v>3.32794641</v>
+      </c>
+      <c r="O23">
+        <v>0.8319866025000001</v>
+      </c>
+      <c r="P23">
+        <v>2.4959598075</v>
+      </c>
+      <c r="Q23">
+        <v>3.2719598075</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.09963080137810899</v>
+      </c>
+      <c r="T23">
+        <v>1.100766355981824</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.25</v>
+      </c>
+      <c r="W23">
+        <v>0.01215</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>39.67295263335325</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.08110004461089948</v>
+      </c>
+      <c r="C24">
+        <v>20.2255357164428</v>
+      </c>
+      <c r="D24">
+        <v>20.6404357164428</v>
+      </c>
+      <c r="E24">
+        <v>5.4699</v>
+      </c>
+      <c r="F24">
+        <v>5.5649</v>
+      </c>
+      <c r="G24">
+        <v>5.15</v>
+      </c>
+      <c r="H24">
+        <v>25.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>4.19</v>
+      </c>
+      <c r="K24">
+        <v>0.776</v>
+      </c>
+      <c r="L24">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.09015137999999999</v>
+      </c>
+      <c r="N24">
+        <v>3.323848620000001</v>
+      </c>
+      <c r="O24">
+        <v>0.8309621550000001</v>
+      </c>
+      <c r="P24">
+        <v>2.492886465000001</v>
+      </c>
+      <c r="Q24">
+        <v>3.268886465</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1005474930908968</v>
+      </c>
+      <c r="T24">
+        <v>1.111937112588094</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.25</v>
+      </c>
+      <c r="W24">
+        <v>0.01215</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>37.86963660456447</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.08094025613309287</v>
+      </c>
+      <c r="C25">
+        <v>19.99524378377471</v>
+      </c>
+      <c r="D25">
+        <v>20.66309378377471</v>
+      </c>
+      <c r="E25">
+        <v>5.72285</v>
+      </c>
+      <c r="F25">
+        <v>5.81785</v>
+      </c>
+      <c r="G25">
+        <v>5.15</v>
+      </c>
+      <c r="H25">
+        <v>25.2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4.19</v>
+      </c>
+      <c r="K25">
+        <v>0.776</v>
+      </c>
+      <c r="L25">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0.09424916999999999</v>
+      </c>
+      <c r="N25">
+        <v>3.319750830000001</v>
+      </c>
+      <c r="O25">
+        <v>0.8299377075000002</v>
+      </c>
+      <c r="P25">
+        <v>2.489813122500001</v>
+      </c>
+      <c r="Q25">
+        <v>3.265813122500001</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1014879949780427</v>
+      </c>
+      <c r="T25">
+        <v>1.123398018716604</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.25</v>
+      </c>
+      <c r="W25">
+        <v>0.01215</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>36.22313066523558</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.08078046765528626</v>
+      </c>
+      <c r="C26">
+        <v>19.76500165162576</v>
+      </c>
+      <c r="D26">
+        <v>20.68580165162576</v>
+      </c>
+      <c r="E26">
+        <v>5.9758</v>
+      </c>
+      <c r="F26">
+        <v>6.070799999999999</v>
+      </c>
+      <c r="G26">
+        <v>5.15</v>
+      </c>
+      <c r="H26">
+        <v>25.2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4.19</v>
+      </c>
+      <c r="K26">
+        <v>0.776</v>
+      </c>
+      <c r="L26">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.09834695999999998</v>
+      </c>
+      <c r="N26">
+        <v>3.315653040000001</v>
+      </c>
+      <c r="O26">
+        <v>0.8289132600000002</v>
+      </c>
+      <c r="P26">
+        <v>2.486739780000001</v>
+      </c>
+      <c r="Q26">
+        <v>3.26273978</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1024532469148503</v>
+      </c>
+      <c r="T26">
+        <v>1.135160527637971</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.25</v>
+      </c>
+      <c r="W26">
+        <v>0.01215</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>34.7138335541841</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.08062067917747964</v>
+      </c>
+      <c r="C27">
+        <v>19.53480948436259</v>
+      </c>
+      <c r="D27">
+        <v>20.70855948436258</v>
+      </c>
+      <c r="E27">
+        <v>6.22875</v>
+      </c>
+      <c r="F27">
+        <v>6.32375</v>
+      </c>
+      <c r="G27">
+        <v>5.15</v>
+      </c>
+      <c r="H27">
+        <v>25.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>4.19</v>
+      </c>
+      <c r="K27">
+        <v>0.776</v>
+      </c>
+      <c r="L27">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M27">
+        <v>0.10244475</v>
+      </c>
+      <c r="N27">
+        <v>3.311555250000001</v>
+      </c>
+      <c r="O27">
+        <v>0.8278888125000001</v>
+      </c>
+      <c r="P27">
+        <v>2.4836664375</v>
+      </c>
+      <c r="Q27">
+        <v>3.2596664375</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1034442389033062</v>
+      </c>
+      <c r="T27">
+        <v>1.147236703463906</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.25</v>
+      </c>
+      <c r="W27">
+        <v>0.01215</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>33.32528021201673</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.08046089069967303</v>
+      </c>
+      <c r="C28">
+        <v>19.30466744707595</v>
+      </c>
+      <c r="D28">
+        <v>20.73136744707595</v>
+      </c>
+      <c r="E28">
+        <v>6.4817</v>
+      </c>
+      <c r="F28">
+        <v>6.5767</v>
+      </c>
+      <c r="G28">
+        <v>5.15</v>
+      </c>
+      <c r="H28">
+        <v>25.2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>4.19</v>
+      </c>
+      <c r="K28">
+        <v>0.776</v>
+      </c>
+      <c r="L28">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.10654254</v>
+      </c>
+      <c r="N28">
+        <v>3.307457460000001</v>
+      </c>
+      <c r="O28">
+        <v>0.8268643650000002</v>
+      </c>
+      <c r="P28">
+        <v>2.480593095000001</v>
+      </c>
+      <c r="Q28">
+        <v>3.256593095</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1044620144590176</v>
+      </c>
+      <c r="T28">
+        <v>1.159639262420273</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.25</v>
+      </c>
+      <c r="W28">
+        <v>0.01215</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>32.0435386654007</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.08030110222186643</v>
+      </c>
+      <c r="C29">
+        <v>19.07457570558471</v>
+      </c>
+      <c r="D29">
+        <v>20.75422570558471</v>
+      </c>
+      <c r="E29">
+        <v>6.73465</v>
+      </c>
+      <c r="F29">
+        <v>6.82965</v>
+      </c>
+      <c r="G29">
+        <v>5.15</v>
+      </c>
+      <c r="H29">
+        <v>25.2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>4.19</v>
+      </c>
+      <c r="K29">
+        <v>0.776</v>
+      </c>
+      <c r="L29">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.11064033</v>
+      </c>
+      <c r="N29">
+        <v>3.303359670000001</v>
+      </c>
+      <c r="O29">
+        <v>0.8258399175000002</v>
+      </c>
+      <c r="P29">
+        <v>2.477519752500001</v>
+      </c>
+      <c r="Q29">
+        <v>3.253519752500001</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1055076742765294</v>
+      </c>
+      <c r="T29">
+        <v>1.17238161751243</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.25</v>
+      </c>
+      <c r="W29">
+        <v>0.01215</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>30.85674093705253</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.08014131374405982</v>
+      </c>
+      <c r="C30">
+        <v>18.84453442643987</v>
+      </c>
+      <c r="D30">
+        <v>20.77713442643987</v>
+      </c>
+      <c r="E30">
+        <v>6.9876</v>
+      </c>
+      <c r="F30">
+        <v>7.0826</v>
+      </c>
+      <c r="G30">
+        <v>5.15</v>
+      </c>
+      <c r="H30">
+        <v>25.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>4.19</v>
+      </c>
+      <c r="K30">
+        <v>0.776</v>
+      </c>
+      <c r="L30">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0.11473812</v>
+      </c>
+      <c r="N30">
+        <v>3.29926188</v>
+      </c>
+      <c r="O30">
+        <v>0.8248154700000001</v>
+      </c>
+      <c r="P30">
+        <v>2.474446410000001</v>
+      </c>
+      <c r="Q30">
+        <v>3.25044641</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1065823802000831</v>
+      </c>
+      <c r="T30">
+        <v>1.185477926912703</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.25</v>
+      </c>
+      <c r="W30">
+        <v>0.01215</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>29.75471447501493</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.0799815252662532</v>
+      </c>
+      <c r="C31">
+        <v>18.61454377692861</v>
+      </c>
+      <c r="D31">
+        <v>20.80009377692861</v>
+      </c>
+      <c r="E31">
+        <v>7.240549999999999</v>
+      </c>
+      <c r="F31">
+        <v>7.335549999999999</v>
+      </c>
+      <c r="G31">
+        <v>5.15</v>
+      </c>
+      <c r="H31">
+        <v>25.2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>4.19</v>
+      </c>
+      <c r="K31">
+        <v>0.776</v>
+      </c>
+      <c r="L31">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.11883591</v>
+      </c>
+      <c r="N31">
+        <v>3.295164090000001</v>
+      </c>
+      <c r="O31">
+        <v>0.8237910225000001</v>
+      </c>
+      <c r="P31">
+        <v>2.471373067500001</v>
+      </c>
+      <c r="Q31">
+        <v>3.247373067500001</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1076873595299341</v>
+      </c>
+      <c r="T31">
+        <v>1.198943146436927</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.25</v>
+      </c>
+      <c r="W31">
+        <v>0.01215</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>28.72868983794546</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.07982173678844658</v>
+      </c>
+      <c r="C32">
+        <v>18.38460392507834</v>
+      </c>
+      <c r="D32">
+        <v>20.82310392507834</v>
+      </c>
+      <c r="E32">
+        <v>7.493499999999999</v>
+      </c>
+      <c r="F32">
+        <v>7.588499999999999</v>
+      </c>
+      <c r="G32">
+        <v>5.15</v>
+      </c>
+      <c r="H32">
+        <v>25.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>4.19</v>
+      </c>
+      <c r="K32">
+        <v>0.776</v>
+      </c>
+      <c r="L32">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.1229337</v>
+      </c>
+      <c r="N32">
+        <v>3.291066300000001</v>
+      </c>
+      <c r="O32">
+        <v>0.8227665750000002</v>
+      </c>
+      <c r="P32">
+        <v>2.468299725</v>
+      </c>
+      <c r="Q32">
+        <v>3.244299725</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1088239096977808</v>
+      </c>
+      <c r="T32">
+        <v>1.212793086518987</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.25</v>
+      </c>
+      <c r="W32">
+        <v>0.01215</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>27.77106684334728</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.07966194831063997</v>
+      </c>
+      <c r="C33">
+        <v>18.15471503966083</v>
+      </c>
+      <c r="D33">
+        <v>20.84616503966083</v>
+      </c>
+      <c r="E33">
+        <v>7.746449999999999</v>
+      </c>
+      <c r="F33">
+        <v>7.841449999999999</v>
+      </c>
+      <c r="G33">
+        <v>5.15</v>
+      </c>
+      <c r="H33">
+        <v>25.2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>4.19</v>
+      </c>
+      <c r="K33">
+        <v>0.776</v>
+      </c>
+      <c r="L33">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M33">
+        <v>0.12703149</v>
+      </c>
+      <c r="N33">
+        <v>3.286968510000001</v>
+      </c>
+      <c r="O33">
+        <v>0.8217421275000002</v>
+      </c>
+      <c r="P33">
+        <v>2.4652263825</v>
+      </c>
+      <c r="Q33">
+        <v>3.241226382500001</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1099934033487536</v>
+      </c>
+      <c r="T33">
+        <v>1.227044474139656</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.25</v>
+      </c>
+      <c r="W33">
+        <v>0.01215</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>26.87522597743285</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.07950215983283336</v>
+      </c>
+      <c r="C34">
+        <v>17.92487729019632</v>
+      </c>
+      <c r="D34">
+        <v>20.86927729019632</v>
+      </c>
+      <c r="E34">
+        <v>7.999400000000001</v>
+      </c>
+      <c r="F34">
+        <v>8.0944</v>
+      </c>
+      <c r="G34">
+        <v>5.15</v>
+      </c>
+      <c r="H34">
+        <v>25.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>4.19</v>
+      </c>
+      <c r="K34">
+        <v>0.776</v>
+      </c>
+      <c r="L34">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.13112928</v>
+      </c>
+      <c r="N34">
+        <v>3.28287072</v>
+      </c>
+      <c r="O34">
+        <v>0.8207176800000001</v>
+      </c>
+      <c r="P34">
+        <v>2.46215304</v>
+      </c>
+      <c r="Q34">
+        <v>3.23815304</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1111972938718138</v>
+      </c>
+      <c r="T34">
+        <v>1.241715020219758</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.25</v>
+      </c>
+      <c r="W34">
+        <v>0.01215</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>26.03537516563807</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.07934237135502675</v>
+      </c>
+      <c r="C35">
+        <v>17.69509084695768</v>
+      </c>
+      <c r="D35">
+        <v>20.89244084695768</v>
+      </c>
+      <c r="E35">
+        <v>8.25235</v>
+      </c>
+      <c r="F35">
+        <v>8.34735</v>
+      </c>
+      <c r="G35">
+        <v>5.15</v>
+      </c>
+      <c r="H35">
+        <v>25.2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>4.19</v>
+      </c>
+      <c r="K35">
+        <v>0.776</v>
+      </c>
+      <c r="L35">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M35">
+        <v>0.13522707</v>
+      </c>
+      <c r="N35">
+        <v>3.278772930000001</v>
+      </c>
+      <c r="O35">
+        <v>0.8196932325000001</v>
+      </c>
+      <c r="P35">
+        <v>2.4590796975</v>
+      </c>
+      <c r="Q35">
+        <v>3.235079697500001</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1124371214254131</v>
+      </c>
+      <c r="T35">
+        <v>1.256823493048518</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.25</v>
+      </c>
+      <c r="W35">
+        <v>0.01215</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>25.24642440304297</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.07918258287722013</v>
+      </c>
+      <c r="C36">
+        <v>17.46535588097459</v>
+      </c>
+      <c r="D36">
+        <v>20.91565588097459</v>
+      </c>
+      <c r="E36">
+        <v>8.5053</v>
+      </c>
+      <c r="F36">
+        <v>8.600300000000001</v>
+      </c>
+      <c r="G36">
+        <v>5.15</v>
+      </c>
+      <c r="H36">
+        <v>25.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>4.19</v>
+      </c>
+      <c r="K36">
+        <v>0.776</v>
+      </c>
+      <c r="L36">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M36">
+        <v>0.13932486</v>
+      </c>
+      <c r="N36">
+        <v>3.274675140000001</v>
+      </c>
+      <c r="O36">
+        <v>0.8186687850000002</v>
+      </c>
+      <c r="P36">
+        <v>2.456006355</v>
+      </c>
+      <c r="Q36">
+        <v>3.232006355</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1137145195109396</v>
+      </c>
+      <c r="T36">
+        <v>1.272389798387242</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.25</v>
+      </c>
+      <c r="W36">
+        <v>0.01215</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>24.50388250883583</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.07902279439941352</v>
+      </c>
+      <c r="C37">
+        <v>17.23567256403771</v>
+      </c>
+      <c r="D37">
+        <v>20.93892256403772</v>
+      </c>
+      <c r="E37">
+        <v>8.75825</v>
+      </c>
+      <c r="F37">
+        <v>8.853250000000001</v>
+      </c>
+      <c r="G37">
+        <v>5.15</v>
+      </c>
+      <c r="H37">
+        <v>25.2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>4.19</v>
+      </c>
+      <c r="K37">
+        <v>0.776</v>
+      </c>
+      <c r="L37">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M37">
+        <v>0.14342265</v>
+      </c>
+      <c r="N37">
+        <v>3.27057735</v>
+      </c>
+      <c r="O37">
+        <v>0.8176443375000001</v>
+      </c>
+      <c r="P37">
+        <v>2.4529330125</v>
+      </c>
+      <c r="Q37">
+        <v>3.228933012500001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1150312221529439</v>
+      </c>
+      <c r="T37">
+        <v>1.288435066967156</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.25</v>
+      </c>
+      <c r="W37">
+        <v>0.01215</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>23.80377158001194</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.07886300592160692</v>
+      </c>
+      <c r="C38">
+        <v>17.00604106870302</v>
+      </c>
+      <c r="D38">
+        <v>20.96224106870302</v>
+      </c>
+      <c r="E38">
+        <v>9.011199999999999</v>
+      </c>
+      <c r="F38">
+        <v>9.106199999999999</v>
+      </c>
+      <c r="G38">
+        <v>5.15</v>
+      </c>
+      <c r="H38">
+        <v>25.2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>4.19</v>
+      </c>
+      <c r="K38">
+        <v>0.776</v>
+      </c>
+      <c r="L38">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M38">
+        <v>0.14752044</v>
+      </c>
+      <c r="N38">
+        <v>3.266479560000001</v>
+      </c>
+      <c r="O38">
+        <v>0.8166198900000001</v>
+      </c>
+      <c r="P38">
+        <v>2.44985967</v>
+      </c>
+      <c r="Q38">
+        <v>3.22585967</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1163890717525108</v>
+      </c>
+      <c r="T38">
+        <v>1.304981750190193</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.25</v>
+      </c>
+      <c r="W38">
+        <v>0.01215</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>23.1425557027894</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.07870321744380029</v>
+      </c>
+      <c r="C39">
+        <v>16.77646156829597</v>
+      </c>
+      <c r="D39">
+        <v>20.98561156829597</v>
+      </c>
+      <c r="E39">
+        <v>9.264149999999999</v>
+      </c>
+      <c r="F39">
+        <v>9.35915</v>
+      </c>
+      <c r="G39">
+        <v>5.15</v>
+      </c>
+      <c r="H39">
+        <v>25.2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>4.19</v>
+      </c>
+      <c r="K39">
+        <v>0.776</v>
+      </c>
+      <c r="L39">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.15161823</v>
+      </c>
+      <c r="N39">
+        <v>3.262381770000001</v>
+      </c>
+      <c r="O39">
+        <v>0.8155954425000002</v>
+      </c>
+      <c r="P39">
+        <v>2.4467863275</v>
+      </c>
+      <c r="Q39">
+        <v>3.222786327500001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1177900276885719</v>
+      </c>
+      <c r="T39">
+        <v>1.322053724944121</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.25</v>
+      </c>
+      <c r="W39">
+        <v>0.01215</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>22.51708122433563</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.07854342896599369</v>
+      </c>
+      <c r="C40">
+        <v>16.54693423691585</v>
+      </c>
+      <c r="D40">
+        <v>21.00903423691584</v>
+      </c>
+      <c r="E40">
+        <v>9.517099999999999</v>
+      </c>
+      <c r="F40">
+        <v>9.6121</v>
+      </c>
+      <c r="G40">
+        <v>5.15</v>
+      </c>
+      <c r="H40">
+        <v>25.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>4.19</v>
+      </c>
+      <c r="K40">
+        <v>0.776</v>
+      </c>
+      <c r="L40">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M40">
+        <v>0.15571602</v>
+      </c>
+      <c r="N40">
+        <v>3.258283980000001</v>
+      </c>
+      <c r="O40">
+        <v>0.8145709950000002</v>
+      </c>
+      <c r="P40">
+        <v>2.443712985</v>
+      </c>
+      <c r="Q40">
+        <v>3.219712985</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1192361757516027</v>
+      </c>
+      <c r="T40">
+        <v>1.339676408561078</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.25</v>
+      </c>
+      <c r="W40">
+        <v>0.01215</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>21.92452645527417</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.07838364048818708</v>
+      </c>
+      <c r="C41">
+        <v>16.31745924944005</v>
+      </c>
+      <c r="D41">
+        <v>21.03250924944005</v>
+      </c>
+      <c r="E41">
+        <v>9.770049999999999</v>
+      </c>
+      <c r="F41">
+        <v>9.86505</v>
+      </c>
+      <c r="G41">
+        <v>5.15</v>
+      </c>
+      <c r="H41">
+        <v>25.2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>4.19</v>
+      </c>
+      <c r="K41">
+        <v>0.776</v>
+      </c>
+      <c r="L41">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M41">
+        <v>0.15981381</v>
+      </c>
+      <c r="N41">
+        <v>3.25418619</v>
+      </c>
+      <c r="O41">
+        <v>0.8135465475000001</v>
+      </c>
+      <c r="P41">
+        <v>2.4406396425</v>
+      </c>
+      <c r="Q41">
+        <v>3.216639642500001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1207297385052247</v>
+      </c>
+      <c r="T41">
+        <v>1.357876885083509</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.25</v>
+      </c>
+      <c r="W41">
+        <v>0.01215</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>21.36235911026713</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.07822385201038047</v>
+      </c>
+      <c r="C42">
+        <v>16.08803678152852</v>
+      </c>
+      <c r="D42">
+        <v>21.05603678152852</v>
+      </c>
+      <c r="E42">
+        <v>10.023</v>
+      </c>
+      <c r="F42">
+        <v>10.118</v>
+      </c>
+      <c r="G42">
+        <v>5.15</v>
+      </c>
+      <c r="H42">
+        <v>25.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>4.19</v>
+      </c>
+      <c r="K42">
+        <v>0.776</v>
+      </c>
+      <c r="L42">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M42">
+        <v>0.1639116</v>
+      </c>
+      <c r="N42">
+        <v>3.250088400000001</v>
+      </c>
+      <c r="O42">
+        <v>0.8125221000000001</v>
+      </c>
+      <c r="P42">
+        <v>2.4375663</v>
+      </c>
+      <c r="Q42">
+        <v>3.2135663</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1222730866839674</v>
+      </c>
+      <c r="T42">
+        <v>1.376684044156688</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.25</v>
+      </c>
+      <c r="W42">
+        <v>0.01215</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>20.82830013251046</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.07806406353257385</v>
+      </c>
+      <c r="C43">
+        <v>15.85866700962801</v>
+      </c>
+      <c r="D43">
+        <v>21.07961700962801</v>
+      </c>
+      <c r="E43">
+        <v>10.27595</v>
+      </c>
+      <c r="F43">
+        <v>10.37095</v>
+      </c>
+      <c r="G43">
+        <v>5.15</v>
+      </c>
+      <c r="H43">
+        <v>25.2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>4.19</v>
+      </c>
+      <c r="K43">
+        <v>0.776</v>
+      </c>
+      <c r="L43">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M43">
+        <v>0.16800939</v>
+      </c>
+      <c r="N43">
+        <v>3.245990610000001</v>
+      </c>
+      <c r="O43">
+        <v>0.8114976525000002</v>
+      </c>
+      <c r="P43">
+        <v>2.434492957500001</v>
+      </c>
+      <c r="Q43">
+        <v>3.210492957500001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1238687517501252</v>
+      </c>
+      <c r="T43">
+        <v>1.396128734045907</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.25</v>
+      </c>
+      <c r="W43">
+        <v>0.01215</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>20.32029281220532</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.07790427505476724</v>
+      </c>
+      <c r="C44">
+        <v>15.6293501109766</v>
+      </c>
+      <c r="D44">
+        <v>21.1032501109766</v>
+      </c>
+      <c r="E44">
+        <v>10.5289</v>
+      </c>
+      <c r="F44">
+        <v>10.6239</v>
+      </c>
+      <c r="G44">
+        <v>5.15</v>
+      </c>
+      <c r="H44">
+        <v>25.2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>4.19</v>
+      </c>
+      <c r="K44">
+        <v>0.776</v>
+      </c>
+      <c r="L44">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M44">
+        <v>0.17210718</v>
+      </c>
+      <c r="N44">
+        <v>3.241892820000001</v>
+      </c>
+      <c r="O44">
+        <v>0.8104732050000002</v>
+      </c>
+      <c r="P44">
+        <v>2.431419615000001</v>
+      </c>
+      <c r="Q44">
+        <v>3.207419615000001</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1255194397495987</v>
+      </c>
+      <c r="T44">
+        <v>1.416243930483029</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.25</v>
+      </c>
+      <c r="W44">
+        <v>0.01215</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>19.83647631667663</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.07774448657696062</v>
+      </c>
+      <c r="C45">
+        <v>15.40008626360808</v>
+      </c>
+      <c r="D45">
+        <v>21.12693626360808</v>
+      </c>
+      <c r="E45">
+        <v>10.78185</v>
+      </c>
+      <c r="F45">
+        <v>10.87685</v>
+      </c>
+      <c r="G45">
+        <v>5.15</v>
+      </c>
+      <c r="H45">
+        <v>25.2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>4.19</v>
+      </c>
+      <c r="K45">
+        <v>0.776</v>
+      </c>
+      <c r="L45">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M45">
+        <v>0.17620497</v>
+      </c>
+      <c r="N45">
+        <v>3.23779503</v>
+      </c>
+      <c r="O45">
+        <v>0.8094487575000001</v>
+      </c>
+      <c r="P45">
+        <v>2.4283462725</v>
+      </c>
+      <c r="Q45">
+        <v>3.2043462725</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1272280466262467</v>
+      </c>
+      <c r="T45">
+        <v>1.437064923286367</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.25</v>
+      </c>
+      <c r="W45">
+        <v>0.01215</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>19.37516291396321</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.07758469809915403</v>
+      </c>
+      <c r="C46">
+        <v>15.17087564635642</v>
+      </c>
+      <c r="D46">
+        <v>21.15067564635642</v>
+      </c>
+      <c r="E46">
+        <v>11.0348</v>
+      </c>
+      <c r="F46">
+        <v>11.1298</v>
+      </c>
+      <c r="G46">
+        <v>5.15</v>
+      </c>
+      <c r="H46">
+        <v>25.2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>4.19</v>
+      </c>
+      <c r="K46">
+        <v>0.776</v>
+      </c>
+      <c r="L46">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M46">
+        <v>0.18030276</v>
+      </c>
+      <c r="N46">
+        <v>3.233697240000001</v>
+      </c>
+      <c r="O46">
+        <v>0.8084243100000001</v>
+      </c>
+      <c r="P46">
+        <v>2.42527293</v>
+      </c>
+      <c r="Q46">
+        <v>3.20127293</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1289976751770607</v>
+      </c>
+      <c r="T46">
+        <v>1.458629522975538</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.25</v>
+      </c>
+      <c r="W46">
+        <v>0.01215</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>18.93481830228223</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.0774249096213474</v>
+      </c>
+      <c r="C47">
+        <v>14.94171843886029</v>
+      </c>
+      <c r="D47">
+        <v>21.17446843886029</v>
+      </c>
+      <c r="E47">
+        <v>11.28775</v>
+      </c>
+      <c r="F47">
+        <v>11.38275</v>
+      </c>
+      <c r="G47">
+        <v>5.15</v>
+      </c>
+      <c r="H47">
+        <v>25.2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>4.19</v>
+      </c>
+      <c r="K47">
+        <v>0.776</v>
+      </c>
+      <c r="L47">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M47">
+        <v>0.18440055</v>
+      </c>
+      <c r="N47">
+        <v>3.229599450000001</v>
+      </c>
+      <c r="O47">
+        <v>0.8073998625000002</v>
+      </c>
+      <c r="P47">
+        <v>2.422199587500001</v>
+      </c>
+      <c r="Q47">
+        <v>3.1981995875</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1308316538569953</v>
+      </c>
+      <c r="T47">
+        <v>1.480978289926134</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.25</v>
+      </c>
+      <c r="W47">
+        <v>0.01215</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>18.51404456223151</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.07726512114354078</v>
+      </c>
+      <c r="C48">
+        <v>14.71261482156762</v>
+      </c>
+      <c r="D48">
+        <v>21.19831482156762</v>
+      </c>
+      <c r="E48">
+        <v>11.5407</v>
+      </c>
+      <c r="F48">
+        <v>11.6357</v>
+      </c>
+      <c r="G48">
+        <v>5.15</v>
+      </c>
+      <c r="H48">
+        <v>25.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>4.19</v>
+      </c>
+      <c r="K48">
+        <v>0.776</v>
+      </c>
+      <c r="L48">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0.18849834</v>
+      </c>
+      <c r="N48">
+        <v>3.225501660000001</v>
+      </c>
+      <c r="O48">
+        <v>0.8063754150000002</v>
+      </c>
+      <c r="P48">
+        <v>2.419126245000001</v>
+      </c>
+      <c r="Q48">
+        <v>3.195126245000001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1327335576732237</v>
+      </c>
+      <c r="T48">
+        <v>1.504154788986011</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.25</v>
+      </c>
+      <c r="W48">
+        <v>0.01215</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>18.11156533261779</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.07710533266573419</v>
+      </c>
+      <c r="C49">
+        <v>14.48356497574008</v>
+      </c>
+      <c r="D49">
+        <v>21.22221497574008</v>
+      </c>
+      <c r="E49">
+        <v>11.79365</v>
+      </c>
+      <c r="F49">
+        <v>11.88865</v>
+      </c>
+      <c r="G49">
+        <v>5.15</v>
+      </c>
+      <c r="H49">
+        <v>25.2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>4.19</v>
+      </c>
+      <c r="K49">
+        <v>0.776</v>
+      </c>
+      <c r="L49">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M49">
+        <v>0.19259613</v>
+      </c>
+      <c r="N49">
+        <v>3.221403870000001</v>
+      </c>
+      <c r="O49">
+        <v>0.8053509675000001</v>
+      </c>
+      <c r="P49">
+        <v>2.416052902500001</v>
+      </c>
+      <c r="Q49">
+        <v>3.1920529025</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1347072314447815</v>
+      </c>
+      <c r="T49">
+        <v>1.528205872916071</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.25</v>
+      </c>
+      <c r="W49">
+        <v>0.01215</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>17.7262128787323</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.07694554418792758</v>
+      </c>
+      <c r="C50">
+        <v>14.25456908345774</v>
+      </c>
+      <c r="D50">
+        <v>21.24616908345774</v>
+      </c>
+      <c r="E50">
+        <v>12.0466</v>
+      </c>
+      <c r="F50">
+        <v>12.1416</v>
+      </c>
+      <c r="G50">
+        <v>5.15</v>
+      </c>
+      <c r="H50">
+        <v>25.2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>4.19</v>
+      </c>
+      <c r="K50">
+        <v>0.776</v>
+      </c>
+      <c r="L50">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M50">
+        <v>0.19669392</v>
+      </c>
+      <c r="N50">
+        <v>3.217306080000001</v>
+      </c>
+      <c r="O50">
+        <v>0.8043265200000002</v>
+      </c>
+      <c r="P50">
+        <v>2.412979560000001</v>
+      </c>
+      <c r="Q50">
+        <v>3.188979560000001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1367568157460146</v>
+      </c>
+      <c r="T50">
+        <v>1.55318199853575</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.25</v>
+      </c>
+      <c r="W50">
+        <v>0.01215</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>17.35691677709205</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.07678575571012096</v>
+      </c>
+      <c r="C51">
+        <v>14.02562732762368</v>
+      </c>
+      <c r="D51">
+        <v>21.27017732762368</v>
+      </c>
+      <c r="E51">
+        <v>12.29955</v>
+      </c>
+      <c r="F51">
+        <v>12.39455</v>
+      </c>
+      <c r="G51">
+        <v>5.15</v>
+      </c>
+      <c r="H51">
+        <v>25.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>4.19</v>
+      </c>
+      <c r="K51">
+        <v>0.776</v>
+      </c>
+      <c r="L51">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M51">
+        <v>0.20079171</v>
+      </c>
+      <c r="N51">
+        <v>3.213208290000001</v>
+      </c>
+      <c r="O51">
+        <v>0.8033020725000002</v>
+      </c>
+      <c r="P51">
+        <v>2.409906217500001</v>
+      </c>
+      <c r="Q51">
+        <v>3.1859062175</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1388867759021979</v>
+      </c>
+      <c r="T51">
+        <v>1.579137580062083</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.25</v>
+      </c>
+      <c r="W51">
+        <v>0.01215</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>17.00269398572282</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.07662596723231434</v>
+      </c>
+      <c r="C52">
+        <v>13.79673989196864</v>
+      </c>
+      <c r="D52">
+        <v>21.29423989196864</v>
+      </c>
+      <c r="E52">
+        <v>12.5525</v>
+      </c>
+      <c r="F52">
+        <v>12.6475</v>
+      </c>
+      <c r="G52">
+        <v>5.15</v>
+      </c>
+      <c r="H52">
+        <v>25.2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>4.19</v>
+      </c>
+      <c r="K52">
+        <v>0.776</v>
+      </c>
+      <c r="L52">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M52">
+        <v>0.2048895</v>
+      </c>
+      <c r="N52">
+        <v>3.2091105</v>
+      </c>
+      <c r="O52">
+        <v>0.8022776250000001</v>
+      </c>
+      <c r="P52">
+        <v>2.406832875</v>
+      </c>
+      <c r="Q52">
+        <v>3.182832875</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1411019344646287</v>
+      </c>
+      <c r="T52">
+        <v>1.606131384849469</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.25</v>
+      </c>
+      <c r="W52">
+        <v>0.01215</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>16.66264010600836</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.07646617875450773</v>
+      </c>
+      <c r="C53">
+        <v>13.56790696105569</v>
+      </c>
+      <c r="D53">
+        <v>21.31835696105569</v>
+      </c>
+      <c r="E53">
+        <v>12.80545</v>
+      </c>
+      <c r="F53">
+        <v>12.90045</v>
+      </c>
+      <c r="G53">
+        <v>5.15</v>
+      </c>
+      <c r="H53">
+        <v>25.2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>4.19</v>
+      </c>
+      <c r="K53">
+        <v>0.776</v>
+      </c>
+      <c r="L53">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M53">
+        <v>0.20898729</v>
+      </c>
+      <c r="N53">
+        <v>3.205012710000001</v>
+      </c>
+      <c r="O53">
+        <v>0.8012531775000001</v>
+      </c>
+      <c r="P53">
+        <v>2.403759532500001</v>
+      </c>
+      <c r="Q53">
+        <v>3.1797595325</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1434075076622607</v>
+      </c>
+      <c r="T53">
+        <v>1.634226977587361</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.25</v>
+      </c>
+      <c r="W53">
+        <v>0.01215</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>16.33592167255722</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.07630639027670111</v>
+      </c>
+      <c r="C54">
+        <v>13.33912872028499</v>
+      </c>
+      <c r="D54">
+        <v>21.34252872028499</v>
+      </c>
+      <c r="E54">
+        <v>13.0584</v>
+      </c>
+      <c r="F54">
+        <v>13.1534</v>
+      </c>
+      <c r="G54">
+        <v>5.15</v>
+      </c>
+      <c r="H54">
+        <v>25.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>4.19</v>
+      </c>
+      <c r="K54">
+        <v>0.776</v>
+      </c>
+      <c r="L54">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M54">
+        <v>0.21308508</v>
+      </c>
+      <c r="N54">
+        <v>3.200914920000001</v>
+      </c>
+      <c r="O54">
+        <v>0.8002287300000002</v>
+      </c>
+      <c r="P54">
+        <v>2.40068619</v>
+      </c>
+      <c r="Q54">
+        <v>3.176686190000001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.145809146409794</v>
+      </c>
+      <c r="T54">
+        <v>1.663493220022664</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.25</v>
+      </c>
+      <c r="W54">
+        <v>0.01215</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>16.02176933270035</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.0761466017988945</v>
+      </c>
+      <c r="C55">
+        <v>13.11040535589849</v>
+      </c>
+      <c r="D55">
+        <v>21.36675535589849</v>
+      </c>
+      <c r="E55">
+        <v>13.31135</v>
+      </c>
+      <c r="F55">
+        <v>13.40635</v>
+      </c>
+      <c r="G55">
+        <v>5.15</v>
+      </c>
+      <c r="H55">
+        <v>25.2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>4.19</v>
+      </c>
+      <c r="K55">
+        <v>0.776</v>
+      </c>
+      <c r="L55">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M55">
+        <v>0.21718287</v>
+      </c>
+      <c r="N55">
+        <v>3.196817130000001</v>
+      </c>
+      <c r="O55">
+        <v>0.7992042825000002</v>
+      </c>
+      <c r="P55">
+        <v>2.3976128475</v>
+      </c>
+      <c r="Q55">
+        <v>3.1736128475</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1483129825508394</v>
+      </c>
+      <c r="T55">
+        <v>1.694004834476492</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.25</v>
+      </c>
+      <c r="W55">
+        <v>0.01215</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>15.7194717981211</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.07598681332108789</v>
+      </c>
+      <c r="C56">
+        <v>12.88173705498476</v>
+      </c>
+      <c r="D56">
+        <v>21.39103705498475</v>
+      </c>
+      <c r="E56">
+        <v>13.5643</v>
+      </c>
+      <c r="F56">
+        <v>13.6593</v>
+      </c>
+      <c r="G56">
+        <v>5.15</v>
+      </c>
+      <c r="H56">
+        <v>25.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>4.19</v>
+      </c>
+      <c r="K56">
+        <v>0.776</v>
+      </c>
+      <c r="L56">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M56">
+        <v>0.22128066</v>
+      </c>
+      <c r="N56">
+        <v>3.19271934</v>
+      </c>
+      <c r="O56">
+        <v>0.7981798350000001</v>
+      </c>
+      <c r="P56">
+        <v>2.394539505</v>
+      </c>
+      <c r="Q56">
+        <v>3.170539505000001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1509256811327998</v>
+      </c>
+      <c r="T56">
+        <v>1.725843040863094</v>
+      </c>
+      <c r="U56">
+        <v>0.0162</v>
+      </c>
+      <c r="V56">
+        <v>0.25</v>
+      </c>
+      <c r="W56">
+        <v>0.01215</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>15.42837046852626</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.07582702484328127</v>
+      </c>
+      <c r="C57">
+        <v>12.65312400548377</v>
+      </c>
+      <c r="D57">
+        <v>21.41537400548377</v>
+      </c>
+      <c r="E57">
+        <v>13.81725</v>
+      </c>
+      <c r="F57">
+        <v>13.91225</v>
+      </c>
+      <c r="G57">
+        <v>5.15</v>
+      </c>
+      <c r="H57">
+        <v>25.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>4.19</v>
+      </c>
+      <c r="K57">
+        <v>0.776</v>
+      </c>
+      <c r="L57">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.22537845</v>
+      </c>
+      <c r="N57">
+        <v>3.188621550000001</v>
+      </c>
+      <c r="O57">
+        <v>0.7971553875000001</v>
+      </c>
+      <c r="P57">
+        <v>2.3914661625</v>
+      </c>
+      <c r="Q57">
+        <v>3.1674661625</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1536544996517362</v>
+      </c>
+      <c r="T57">
+        <v>1.759096278644657</v>
+      </c>
+      <c r="U57">
+        <v>0.0162</v>
+      </c>
+      <c r="V57">
+        <v>0.25</v>
+      </c>
+      <c r="W57">
+        <v>0.01215</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>15.14785464182579</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.07566723636547466</v>
+      </c>
+      <c r="C58">
+        <v>12.42456639619177</v>
+      </c>
+      <c r="D58">
+        <v>21.43976639619177</v>
+      </c>
+      <c r="E58">
+        <v>14.0702</v>
+      </c>
+      <c r="F58">
+        <v>14.1652</v>
+      </c>
+      <c r="G58">
+        <v>5.15</v>
+      </c>
+      <c r="H58">
+        <v>25.2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>4.19</v>
+      </c>
+      <c r="K58">
+        <v>0.776</v>
+      </c>
+      <c r="L58">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M58">
+        <v>0.22947624</v>
+      </c>
+      <c r="N58">
+        <v>3.184523760000001</v>
+      </c>
+      <c r="O58">
+        <v>0.7961309400000002</v>
+      </c>
+      <c r="P58">
+        <v>2.38839282</v>
+      </c>
+      <c r="Q58">
+        <v>3.164392820000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1565073553760788</v>
+      </c>
+      <c r="T58">
+        <v>1.793861027234472</v>
+      </c>
+      <c r="U58">
+        <v>0.0162</v>
+      </c>
+      <c r="V58">
+        <v>0.25</v>
+      </c>
+      <c r="W58">
+        <v>0.01215</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>14.87735723750747</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.07550744788766806</v>
+      </c>
+      <c r="C59">
+        <v>12.19606441676615</v>
+      </c>
+      <c r="D59">
+        <v>21.46421441676615</v>
+      </c>
+      <c r="E59">
+        <v>14.32315</v>
+      </c>
+      <c r="F59">
+        <v>14.41815</v>
+      </c>
+      <c r="G59">
+        <v>5.15</v>
+      </c>
+      <c r="H59">
+        <v>25.2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>4.19</v>
+      </c>
+      <c r="K59">
+        <v>0.776</v>
+      </c>
+      <c r="L59">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M59">
+        <v>0.23357403</v>
+      </c>
+      <c r="N59">
+        <v>3.180425970000001</v>
+      </c>
+      <c r="O59">
+        <v>0.7951064925000002</v>
+      </c>
+      <c r="P59">
+        <v>2.3853194775</v>
+      </c>
+      <c r="Q59">
+        <v>3.1613194775</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1594929020643443</v>
+      </c>
+      <c r="T59">
+        <v>1.830242740874976</v>
+      </c>
+      <c r="U59">
+        <v>0.0162</v>
+      </c>
+      <c r="V59">
+        <v>0.25</v>
+      </c>
+      <c r="W59">
+        <v>0.01215</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>14.61635097018278</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.07534765940986143</v>
+      </c>
+      <c r="C60">
+        <v>11.96761825773036</v>
+      </c>
+      <c r="D60">
+        <v>21.48871825773036</v>
+      </c>
+      <c r="E60">
+        <v>14.5761</v>
+      </c>
+      <c r="F60">
+        <v>14.6711</v>
+      </c>
+      <c r="G60">
+        <v>5.15</v>
+      </c>
+      <c r="H60">
+        <v>25.2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>4.19</v>
+      </c>
+      <c r="K60">
+        <v>0.776</v>
+      </c>
+      <c r="L60">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M60">
+        <v>0.23767182</v>
+      </c>
+      <c r="N60">
+        <v>3.176328180000001</v>
+      </c>
+      <c r="O60">
+        <v>0.7940820450000001</v>
+      </c>
+      <c r="P60">
+        <v>2.382246135</v>
+      </c>
+      <c r="Q60">
+        <v>3.158246135000001</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1626206176425272</v>
+      </c>
+      <c r="T60">
+        <v>1.86835691706979</v>
+      </c>
+      <c r="U60">
+        <v>0.0162</v>
+      </c>
+      <c r="V60">
+        <v>0.25</v>
+      </c>
+      <c r="W60">
+        <v>0.01215</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>14.36434491897273</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.07518787093205481</v>
+      </c>
+      <c r="C61">
+        <v>11.73922811047886</v>
+      </c>
+      <c r="D61">
+        <v>21.51327811047885</v>
+      </c>
+      <c r="E61">
+        <v>14.82905</v>
+      </c>
+      <c r="F61">
+        <v>14.92405</v>
+      </c>
+      <c r="G61">
+        <v>5.15</v>
+      </c>
+      <c r="H61">
+        <v>25.2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>4.19</v>
+      </c>
+      <c r="K61">
+        <v>0.776</v>
+      </c>
+      <c r="L61">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M61">
+        <v>0.2417696099999999</v>
+      </c>
+      <c r="N61">
+        <v>3.172230390000001</v>
+      </c>
+      <c r="O61">
+        <v>0.7930575975000002</v>
+      </c>
+      <c r="P61">
+        <v>2.3791727925</v>
+      </c>
+      <c r="Q61">
+        <v>3.1551727925</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1659009047123288</v>
+      </c>
+      <c r="T61">
+        <v>1.908330321371668</v>
+      </c>
+      <c r="U61">
+        <v>0.0162</v>
+      </c>
+      <c r="V61">
+        <v>0.25</v>
+      </c>
+      <c r="W61">
+        <v>0.01215</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>14.1208814457698</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.07502808245424822</v>
+      </c>
+      <c r="C62">
+        <v>11.5108941672821</v>
+      </c>
+      <c r="D62">
+        <v>21.53789416728209</v>
+      </c>
+      <c r="E62">
+        <v>15.082</v>
+      </c>
+      <c r="F62">
+        <v>15.177</v>
+      </c>
+      <c r="G62">
+        <v>5.15</v>
+      </c>
+      <c r="H62">
+        <v>25.2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>4.19</v>
+      </c>
+      <c r="K62">
+        <v>0.776</v>
+      </c>
+      <c r="L62">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M62">
+        <v>0.2458674</v>
+      </c>
+      <c r="N62">
+        <v>3.168132600000001</v>
+      </c>
+      <c r="O62">
+        <v>0.7920331500000002</v>
+      </c>
+      <c r="P62">
+        <v>2.376099450000001</v>
+      </c>
+      <c r="Q62">
+        <v>3.152099450000001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1693452061356205</v>
+      </c>
+      <c r="T62">
+        <v>1.950302395888641</v>
+      </c>
+      <c r="U62">
+        <v>0.0162</v>
+      </c>
+      <c r="V62">
+        <v>0.25</v>
+      </c>
+      <c r="W62">
+        <v>0.01215</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>13.88553342167364</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.07560029397644161</v>
+      </c>
+      <c r="C63">
+        <v>11.17005196043161</v>
+      </c>
+      <c r="D63">
+        <v>21.45000196043161</v>
+      </c>
+      <c r="E63">
+        <v>15.33495</v>
+      </c>
+      <c r="F63">
+        <v>15.42995</v>
+      </c>
+      <c r="G63">
+        <v>5.15</v>
+      </c>
+      <c r="H63">
+        <v>25.2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>4.19</v>
+      </c>
+      <c r="K63">
+        <v>0.776</v>
+      </c>
+      <c r="L63">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M63">
+        <v>0.27465311</v>
+      </c>
+      <c r="N63">
+        <v>3.139346890000001</v>
+      </c>
+      <c r="O63">
+        <v>0.7848367225000001</v>
+      </c>
+      <c r="P63">
+        <v>2.3545101675</v>
+      </c>
+      <c r="Q63">
+        <v>3.130510167500001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1729661384011323</v>
+      </c>
+      <c r="T63">
+        <v>1.994426884483407</v>
+      </c>
+      <c r="U63">
+        <v>0.0178</v>
+      </c>
+      <c r="V63">
+        <v>0.25</v>
+      </c>
+      <c r="W63">
+        <v>0.01335</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>12.43022516657467</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.075452505498635</v>
+      </c>
+      <c r="C64">
+        <v>10.93973362105148</v>
+      </c>
+      <c r="D64">
+        <v>21.47263362105148</v>
+      </c>
+      <c r="E64">
+        <v>15.5879</v>
+      </c>
+      <c r="F64">
+        <v>15.6829</v>
+      </c>
+      <c r="G64">
+        <v>5.15</v>
+      </c>
+      <c r="H64">
+        <v>25.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>4.19</v>
+      </c>
+      <c r="K64">
+        <v>0.776</v>
+      </c>
+      <c r="L64">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M64">
+        <v>0.27915562</v>
+      </c>
+      <c r="N64">
+        <v>3.134844380000001</v>
+      </c>
+      <c r="O64">
+        <v>0.7837110950000001</v>
+      </c>
+      <c r="P64">
+        <v>2.351133285</v>
+      </c>
+      <c r="Q64">
+        <v>3.127133285</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1767776460490394</v>
+      </c>
+      <c r="T64">
+        <v>2.04087371458316</v>
+      </c>
+      <c r="U64">
+        <v>0.0178</v>
+      </c>
+      <c r="V64">
+        <v>0.25</v>
+      </c>
+      <c r="W64">
+        <v>0.01335</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>12.22973766388798</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.07530471702082839</v>
+      </c>
+      <c r="C65">
+        <v>10.70946308894355</v>
+      </c>
+      <c r="D65">
+        <v>21.49531308894355</v>
+      </c>
+      <c r="E65">
+        <v>15.84085</v>
+      </c>
+      <c r="F65">
+        <v>15.93585</v>
+      </c>
+      <c r="G65">
+        <v>5.15</v>
+      </c>
+      <c r="H65">
+        <v>25.2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>4.19</v>
+      </c>
+      <c r="K65">
+        <v>0.776</v>
+      </c>
+      <c r="L65">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M65">
+        <v>0.28365813</v>
+      </c>
+      <c r="N65">
+        <v>3.130341870000001</v>
+      </c>
+      <c r="O65">
+        <v>0.7825854675000001</v>
+      </c>
+      <c r="P65">
+        <v>2.3477564025</v>
+      </c>
+      <c r="Q65">
+        <v>3.123756402500001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.180795181137374</v>
+      </c>
+      <c r="T65">
+        <v>2.089831184147765</v>
+      </c>
+      <c r="U65">
+        <v>0.0178</v>
+      </c>
+      <c r="V65">
+        <v>0.25</v>
+      </c>
+      <c r="W65">
+        <v>0.01335</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>12.03561484382627</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.07515692854302176</v>
+      </c>
+      <c r="C66">
+        <v>10.47924051575062</v>
+      </c>
+      <c r="D66">
+        <v>21.51804051575062</v>
+      </c>
+      <c r="E66">
+        <v>16.0938</v>
+      </c>
+      <c r="F66">
+        <v>16.1888</v>
+      </c>
+      <c r="G66">
+        <v>5.15</v>
+      </c>
+      <c r="H66">
+        <v>25.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>4.19</v>
+      </c>
+      <c r="K66">
+        <v>0.776</v>
+      </c>
+      <c r="L66">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M66">
+        <v>0.28816064</v>
+      </c>
+      <c r="N66">
+        <v>3.125839360000001</v>
+      </c>
+      <c r="O66">
+        <v>0.7814598400000001</v>
+      </c>
+      <c r="P66">
+        <v>2.34437952</v>
+      </c>
+      <c r="Q66">
+        <v>3.12037952</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1850359126195049</v>
+      </c>
+      <c r="T66">
+        <v>2.141508513132625</v>
+      </c>
+      <c r="U66">
+        <v>0.0178</v>
+      </c>
+      <c r="V66">
+        <v>0.25</v>
+      </c>
+      <c r="W66">
+        <v>0.01335</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>11.84755836189148</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.07500914006521517</v>
+      </c>
+      <c r="C67">
+        <v>10.24906605375746</v>
+      </c>
+      <c r="D67">
+        <v>21.54081605375746</v>
+      </c>
+      <c r="E67">
+        <v>16.34675</v>
+      </c>
+      <c r="F67">
+        <v>16.44175</v>
+      </c>
+      <c r="G67">
+        <v>5.15</v>
+      </c>
+      <c r="H67">
+        <v>25.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>4.19</v>
+      </c>
+      <c r="K67">
+        <v>0.776</v>
+      </c>
+      <c r="L67">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M67">
+        <v>0.29266315</v>
+      </c>
+      <c r="N67">
+        <v>3.12133685</v>
+      </c>
+      <c r="O67">
+        <v>0.7803342125000001</v>
+      </c>
+      <c r="P67">
+        <v>2.3410026375</v>
+      </c>
+      <c r="Q67">
+        <v>3.117002637500001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1895189716149005</v>
+      </c>
+      <c r="T67">
+        <v>2.196138832345193</v>
+      </c>
+      <c r="U67">
+        <v>0.0178</v>
+      </c>
+      <c r="V67">
+        <v>0.25</v>
+      </c>
+      <c r="W67">
+        <v>0.01335</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>11.665288233247</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.07486135158740855</v>
+      </c>
+      <c r="C68">
+        <v>10.01893985589428</v>
+      </c>
+      <c r="D68">
+        <v>21.56363985589429</v>
+      </c>
+      <c r="E68">
+        <v>16.5997</v>
+      </c>
+      <c r="F68">
+        <v>16.6947</v>
+      </c>
+      <c r="G68">
+        <v>5.15</v>
+      </c>
+      <c r="H68">
+        <v>25.2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>4.19</v>
+      </c>
+      <c r="K68">
+        <v>0.776</v>
+      </c>
+      <c r="L68">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M68">
+        <v>0.29716566</v>
+      </c>
+      <c r="N68">
+        <v>3.11683434</v>
+      </c>
+      <c r="O68">
+        <v>0.7792085850000001</v>
+      </c>
+      <c r="P68">
+        <v>2.337625755</v>
+      </c>
+      <c r="Q68">
+        <v>3.113625755</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1942657399629663</v>
+      </c>
+      <c r="T68">
+        <v>2.253982699746734</v>
+      </c>
+      <c r="U68">
+        <v>0.0178</v>
+      </c>
+      <c r="V68">
+        <v>0.25</v>
+      </c>
+      <c r="W68">
+        <v>0.01335</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>11.48854144183416</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.07471356310960192</v>
+      </c>
+      <c r="C69">
+        <v>9.788862075740159</v>
+      </c>
+      <c r="D69">
+        <v>21.58651207574016</v>
+      </c>
+      <c r="E69">
+        <v>16.85265</v>
+      </c>
+      <c r="F69">
+        <v>16.94765</v>
+      </c>
+      <c r="G69">
+        <v>5.15</v>
+      </c>
+      <c r="H69">
+        <v>25.2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>4.19</v>
+      </c>
+      <c r="K69">
+        <v>0.776</v>
+      </c>
+      <c r="L69">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M69">
+        <v>0.30166817</v>
+      </c>
+      <c r="N69">
+        <v>3.11233183</v>
+      </c>
+      <c r="O69">
+        <v>0.7780829575000001</v>
+      </c>
+      <c r="P69">
+        <v>2.3342488725</v>
+      </c>
+      <c r="Q69">
+        <v>3.110248872500001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.199300191241218</v>
+      </c>
+      <c r="T69">
+        <v>2.315332256081702</v>
+      </c>
+      <c r="U69">
+        <v>0.0178</v>
+      </c>
+      <c r="V69">
+        <v>0.25</v>
+      </c>
+      <c r="W69">
+        <v>0.01335</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>11.31707067404559</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.07456577463179533</v>
+      </c>
+      <c r="C70">
+        <v>9.558832867526405</v>
+      </c>
+      <c r="D70">
+        <v>21.60943286752641</v>
+      </c>
+      <c r="E70">
+        <v>17.1056</v>
+      </c>
+      <c r="F70">
+        <v>17.2006</v>
+      </c>
+      <c r="G70">
+        <v>5.15</v>
+      </c>
+      <c r="H70">
+        <v>25.2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>4.19</v>
+      </c>
+      <c r="K70">
+        <v>0.776</v>
+      </c>
+      <c r="L70">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M70">
+        <v>0.30617068</v>
+      </c>
+      <c r="N70">
+        <v>3.10782932</v>
+      </c>
+      <c r="O70">
+        <v>0.7769573300000001</v>
+      </c>
+      <c r="P70">
+        <v>2.33087199</v>
+      </c>
+      <c r="Q70">
+        <v>3.10687199</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2046492957243604</v>
+      </c>
+      <c r="T70">
+        <v>2.380516159687606</v>
+      </c>
+      <c r="U70">
+        <v>0.0178</v>
+      </c>
+      <c r="V70">
+        <v>0.25</v>
+      </c>
+      <c r="W70">
+        <v>0.01335</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>11.15064316413316</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.0744179861539887</v>
+      </c>
+      <c r="C71">
+        <v>9.328852386140134</v>
+      </c>
+      <c r="D71">
+        <v>21.63240238614013</v>
+      </c>
+      <c r="E71">
+        <v>17.35855</v>
+      </c>
+      <c r="F71">
+        <v>17.45355</v>
+      </c>
+      <c r="G71">
+        <v>5.15</v>
+      </c>
+      <c r="H71">
+        <v>25.2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>4.19</v>
+      </c>
+      <c r="K71">
+        <v>0.776</v>
+      </c>
+      <c r="L71">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M71">
+        <v>0.31067319</v>
+      </c>
+      <c r="N71">
+        <v>3.10332681</v>
+      </c>
+      <c r="O71">
+        <v>0.7758317025000001</v>
+      </c>
+      <c r="P71">
+        <v>2.3274951075</v>
+      </c>
+      <c r="Q71">
+        <v>3.103495107500001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2103435037225443</v>
+      </c>
+      <c r="T71">
+        <v>2.449905476429375</v>
+      </c>
+      <c r="U71">
+        <v>0.0178</v>
+      </c>
+      <c r="V71">
+        <v>0.25</v>
+      </c>
+      <c r="W71">
+        <v>0.01335</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>10.98903964001529</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.07427019767618209</v>
+      </c>
+      <c r="C72">
+        <v>9.098920787127671</v>
+      </c>
+      <c r="D72">
+        <v>21.65542078712767</v>
+      </c>
+      <c r="E72">
+        <v>17.6115</v>
+      </c>
+      <c r="F72">
+        <v>17.7065</v>
+      </c>
+      <c r="G72">
+        <v>5.15</v>
+      </c>
+      <c r="H72">
+        <v>25.2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>4.19</v>
+      </c>
+      <c r="K72">
+        <v>0.776</v>
+      </c>
+      <c r="L72">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M72">
+        <v>0.3151757000000001</v>
+      </c>
+      <c r="N72">
+        <v>3.0988243</v>
+      </c>
+      <c r="O72">
+        <v>0.7747060750000001</v>
+      </c>
+      <c r="P72">
+        <v>2.324118225</v>
+      </c>
+      <c r="Q72">
+        <v>3.100118225</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2164173255872737</v>
+      </c>
+      <c r="T72">
+        <v>2.523920747620594</v>
+      </c>
+      <c r="U72">
+        <v>0.0178</v>
+      </c>
+      <c r="V72">
+        <v>0.25</v>
+      </c>
+      <c r="W72">
+        <v>0.01335</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>10.83205335944364</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.0741224091983755</v>
+      </c>
+      <c r="C73">
+        <v>8.869038226698109</v>
+      </c>
+      <c r="D73">
+        <v>21.6784882266981</v>
+      </c>
+      <c r="E73">
+        <v>17.86445</v>
+      </c>
+      <c r="F73">
+        <v>17.95945</v>
+      </c>
+      <c r="G73">
+        <v>5.15</v>
+      </c>
+      <c r="H73">
+        <v>25.2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>4.19</v>
+      </c>
+      <c r="K73">
+        <v>0.776</v>
+      </c>
+      <c r="L73">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M73">
+        <v>0.31967821</v>
+      </c>
+      <c r="N73">
+        <v>3.09432179</v>
+      </c>
+      <c r="O73">
+        <v>0.7735804475000001</v>
+      </c>
+      <c r="P73">
+        <v>2.3207413425</v>
+      </c>
+      <c r="Q73">
+        <v>3.096741342500001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2229100317185362</v>
+      </c>
+      <c r="T73">
+        <v>2.603040520273277</v>
+      </c>
+      <c r="U73">
+        <v>0.0178</v>
+      </c>
+      <c r="V73">
+        <v>0.25</v>
+      </c>
+      <c r="W73">
+        <v>0.01335</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>10.67948922762049</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.07516262072056887</v>
+      </c>
+      <c r="C74">
+        <v>8.454764263009007</v>
+      </c>
+      <c r="D74">
+        <v>21.51716426300901</v>
+      </c>
+      <c r="E74">
+        <v>18.1174</v>
+      </c>
+      <c r="F74">
+        <v>18.2124</v>
+      </c>
+      <c r="G74">
+        <v>5.15</v>
+      </c>
+      <c r="H74">
+        <v>25.2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>4.19</v>
+      </c>
+      <c r="K74">
+        <v>0.776</v>
+      </c>
+      <c r="L74">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M74">
+        <v>0.3642479999999999</v>
+      </c>
+      <c r="N74">
+        <v>3.049752000000001</v>
+      </c>
+      <c r="O74">
+        <v>0.7624380000000002</v>
+      </c>
+      <c r="P74">
+        <v>2.287314</v>
+      </c>
+      <c r="Q74">
+        <v>3.063314</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2298665025734602</v>
+      </c>
+      <c r="T74">
+        <v>2.687811705258295</v>
+      </c>
+      <c r="U74">
+        <v>0.02</v>
+      </c>
+      <c r="V74">
+        <v>0.25</v>
+      </c>
+      <c r="W74">
+        <v>0.015</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>9.372735059629706</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.07503133224276226</v>
+      </c>
+      <c r="C75">
+        <v>8.222042963123474</v>
+      </c>
+      <c r="D75">
+        <v>21.53739296312347</v>
+      </c>
+      <c r="E75">
+        <v>18.37035</v>
+      </c>
+      <c r="F75">
+        <v>18.46535</v>
+      </c>
+      <c r="G75">
+        <v>5.15</v>
+      </c>
+      <c r="H75">
+        <v>25.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>4.19</v>
+      </c>
+      <c r="K75">
+        <v>0.776</v>
+      </c>
+      <c r="L75">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M75">
+        <v>0.3693069999999999</v>
+      </c>
+      <c r="N75">
+        <v>3.044693000000001</v>
+      </c>
+      <c r="O75">
+        <v>0.7611732500000001</v>
+      </c>
+      <c r="P75">
+        <v>2.28351975</v>
+      </c>
+      <c r="Q75">
+        <v>3.059519750000001</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2373382675657861</v>
+      </c>
+      <c r="T75">
+        <v>2.77886223727924</v>
+      </c>
+      <c r="U75">
+        <v>0.02</v>
+      </c>
+      <c r="V75">
+        <v>0.25</v>
+      </c>
+      <c r="W75">
+        <v>0.015</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>9.244341428675876</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.07490004376495564</v>
+      </c>
+      <c r="C76">
+        <v>7.989359733809174</v>
+      </c>
+      <c r="D76">
+        <v>21.55765973380917</v>
+      </c>
+      <c r="E76">
+        <v>18.6233</v>
+      </c>
+      <c r="F76">
+        <v>18.7183</v>
+      </c>
+      <c r="G76">
+        <v>5.15</v>
+      </c>
+      <c r="H76">
+        <v>25.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>4.19</v>
+      </c>
+      <c r="K76">
+        <v>0.776</v>
+      </c>
+      <c r="L76">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M76">
+        <v>0.3743659999999999</v>
+      </c>
+      <c r="N76">
+        <v>3.039634000000001</v>
+      </c>
+      <c r="O76">
+        <v>0.7599085000000002</v>
+      </c>
+      <c r="P76">
+        <v>2.279725500000001</v>
+      </c>
+      <c r="Q76">
+        <v>3.0557255</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2453847837113678</v>
+      </c>
+      <c r="T76">
+        <v>2.876916656378719</v>
+      </c>
+      <c r="U76">
+        <v>0.02</v>
+      </c>
+      <c r="V76">
+        <v>0.25</v>
+      </c>
+      <c r="W76">
+        <v>0.015</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>9.11941789585593</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.07476875528714902</v>
+      </c>
+      <c r="C77">
+        <v>7.756714682641004</v>
+      </c>
+      <c r="D77">
+        <v>21.577964682641</v>
+      </c>
+      <c r="E77">
+        <v>18.87625</v>
+      </c>
+      <c r="F77">
+        <v>18.97125</v>
+      </c>
+      <c r="G77">
+        <v>5.15</v>
+      </c>
+      <c r="H77">
+        <v>25.2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>4.19</v>
+      </c>
+      <c r="K77">
+        <v>0.776</v>
+      </c>
+      <c r="L77">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M77">
+        <v>0.3794249999999999</v>
+      </c>
+      <c r="N77">
+        <v>3.034575000000001</v>
+      </c>
+      <c r="O77">
+        <v>0.7586437500000002</v>
+      </c>
+      <c r="P77">
+        <v>2.275931250000001</v>
+      </c>
+      <c r="Q77">
+        <v>3.051931250000001</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2540750211485961</v>
+      </c>
+      <c r="T77">
+        <v>2.982815429006156</v>
+      </c>
+      <c r="U77">
+        <v>0.02</v>
+      </c>
+      <c r="V77">
+        <v>0.25</v>
+      </c>
+      <c r="W77">
+        <v>0.015</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>8.997825657244519</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.07463746680934241</v>
+      </c>
+      <c r="C78">
+        <v>7.524107917599533</v>
+      </c>
+      <c r="D78">
+        <v>21.59830791759953</v>
+      </c>
+      <c r="E78">
+        <v>19.1292</v>
+      </c>
+      <c r="F78">
+        <v>19.2242</v>
+      </c>
+      <c r="G78">
+        <v>5.15</v>
+      </c>
+      <c r="H78">
+        <v>25.2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>4.19</v>
+      </c>
+      <c r="K78">
+        <v>0.776</v>
+      </c>
+      <c r="L78">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M78">
+        <v>0.3844839999999999</v>
+      </c>
+      <c r="N78">
+        <v>3.029516000000001</v>
+      </c>
+      <c r="O78">
+        <v>0.7573790000000001</v>
+      </c>
+      <c r="P78">
+        <v>2.272137</v>
+      </c>
+      <c r="Q78">
+        <v>3.048137000000001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2634894450389267</v>
+      </c>
+      <c r="T78">
+        <v>3.097539099352547</v>
+      </c>
+      <c r="U78">
+        <v>0.02</v>
+      </c>
+      <c r="V78">
+        <v>0.25</v>
+      </c>
+      <c r="W78">
+        <v>0.015</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>8.879433214386037</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.07450617833153581</v>
+      </c>
+      <c r="C79">
+        <v>7.291539547072933</v>
+      </c>
+      <c r="D79">
+        <v>21.61868954707293</v>
+      </c>
+      <c r="E79">
+        <v>19.38215</v>
+      </c>
+      <c r="F79">
+        <v>19.47715</v>
+      </c>
+      <c r="G79">
+        <v>5.15</v>
+      </c>
+      <c r="H79">
+        <v>25.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>4.19</v>
+      </c>
+      <c r="K79">
+        <v>0.776</v>
+      </c>
+      <c r="L79">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M79">
+        <v>0.3895429999999999</v>
+      </c>
+      <c r="N79">
+        <v>3.024457000000001</v>
+      </c>
+      <c r="O79">
+        <v>0.7561142500000002</v>
+      </c>
+      <c r="P79">
+        <v>2.26834275</v>
+      </c>
+      <c r="Q79">
+        <v>3.04434275</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2737225144849383</v>
+      </c>
+      <c r="T79">
+        <v>3.222238741033407</v>
+      </c>
+      <c r="U79">
+        <v>0.02</v>
+      </c>
+      <c r="V79">
+        <v>0.25</v>
+      </c>
+      <c r="W79">
+        <v>0.015</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>8.764115899913492</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.07437488985372918</v>
+      </c>
+      <c r="C80">
+        <v>7.059009679858875</v>
+      </c>
+      <c r="D80">
+        <v>21.63910967985887</v>
+      </c>
+      <c r="E80">
+        <v>19.6351</v>
+      </c>
+      <c r="F80">
+        <v>19.7301</v>
+      </c>
+      <c r="G80">
+        <v>5.15</v>
+      </c>
+      <c r="H80">
+        <v>25.2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>4.19</v>
+      </c>
+      <c r="K80">
+        <v>0.776</v>
+      </c>
+      <c r="L80">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M80">
+        <v>0.394602</v>
+      </c>
+      <c r="N80">
+        <v>3.019398000000001</v>
+      </c>
+      <c r="O80">
+        <v>0.7548495000000002</v>
+      </c>
+      <c r="P80">
+        <v>2.264548500000001</v>
+      </c>
+      <c r="Q80">
+        <v>3.040548500000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2848858629714963</v>
+      </c>
+      <c r="T80">
+        <v>3.358274713776162</v>
+      </c>
+      <c r="U80">
+        <v>0.02</v>
+      </c>
+      <c r="V80">
+        <v>0.25</v>
+      </c>
+      <c r="W80">
+        <v>0.015</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>8.651755439658189</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.07424360137592258</v>
+      </c>
+      <c r="C81">
+        <v>6.826518425166498</v>
+      </c>
+      <c r="D81">
+        <v>21.65956842516649</v>
+      </c>
+      <c r="E81">
+        <v>19.88805</v>
+      </c>
+      <c r="F81">
+        <v>19.98305</v>
+      </c>
+      <c r="G81">
+        <v>5.15</v>
+      </c>
+      <c r="H81">
+        <v>25.2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>4.19</v>
+      </c>
+      <c r="K81">
+        <v>0.776</v>
+      </c>
+      <c r="L81">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M81">
+        <v>0.3996609999999999</v>
+      </c>
+      <c r="N81">
+        <v>3.014339000000001</v>
+      </c>
+      <c r="O81">
+        <v>0.7535847500000001</v>
+      </c>
+      <c r="P81">
+        <v>2.260754250000001</v>
+      </c>
+      <c r="Q81">
+        <v>3.03675425</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2971123875043933</v>
+      </c>
+      <c r="T81">
+        <v>3.5072664934468</v>
+      </c>
+      <c r="U81">
+        <v>0.02</v>
+      </c>
+      <c r="V81">
+        <v>0.25</v>
+      </c>
+      <c r="W81">
+        <v>0.015</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>8.542239548016948</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.07411231289811596</v>
+      </c>
+      <c r="C82">
+        <v>6.594065892618328</v>
+      </c>
+      <c r="D82">
+        <v>21.68006589261833</v>
+      </c>
+      <c r="E82">
+        <v>20.141</v>
+      </c>
+      <c r="F82">
+        <v>20.236</v>
+      </c>
+      <c r="G82">
+        <v>5.15</v>
+      </c>
+      <c r="H82">
+        <v>25.2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>4.19</v>
+      </c>
+      <c r="K82">
+        <v>0.776</v>
+      </c>
+      <c r="L82">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M82">
+        <v>0.40472</v>
+      </c>
+      <c r="N82">
+        <v>3.00928</v>
+      </c>
+      <c r="O82">
+        <v>0.7523200000000001</v>
+      </c>
+      <c r="P82">
+        <v>2.25696</v>
+      </c>
+      <c r="Q82">
+        <v>3.03296</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.3105615644905799</v>
+      </c>
+      <c r="T82">
+        <v>3.671157451084501</v>
+      </c>
+      <c r="U82">
+        <v>0.02</v>
+      </c>
+      <c r="V82">
+        <v>0.25</v>
+      </c>
+      <c r="W82">
+        <v>0.015</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>8.435461553666734</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.07398102442030934</v>
+      </c>
+      <c r="C83">
+        <v>6.361652192252269</v>
+      </c>
+      <c r="D83">
+        <v>21.70060219225227</v>
+      </c>
+      <c r="E83">
+        <v>20.39395</v>
+      </c>
+      <c r="F83">
+        <v>20.48895</v>
+      </c>
+      <c r="G83">
+        <v>5.15</v>
+      </c>
+      <c r="H83">
+        <v>25.2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>4.19</v>
+      </c>
+      <c r="K83">
+        <v>0.776</v>
+      </c>
+      <c r="L83">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M83">
+        <v>0.4097789999999999</v>
+      </c>
+      <c r="N83">
+        <v>3.004221000000001</v>
+      </c>
+      <c r="O83">
+        <v>0.7510552500000002</v>
+      </c>
+      <c r="P83">
+        <v>2.25316575</v>
+      </c>
+      <c r="Q83">
+        <v>3.029165750000001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3254264443174177</v>
+      </c>
+      <c r="T83">
+        <v>3.852300088473539</v>
+      </c>
+      <c r="U83">
+        <v>0.02</v>
+      </c>
+      <c r="V83">
+        <v>0.25</v>
+      </c>
+      <c r="W83">
+        <v>0.015</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>8.331320053004184</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.07384973594250273</v>
+      </c>
+      <c r="C84">
+        <v>6.129277434523502</v>
+      </c>
+      <c r="D84">
+        <v>21.7211774345235</v>
+      </c>
+      <c r="E84">
+        <v>20.6469</v>
+      </c>
+      <c r="F84">
+        <v>20.7419</v>
+      </c>
+      <c r="G84">
+        <v>5.15</v>
+      </c>
+      <c r="H84">
+        <v>25.2</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>4.19</v>
+      </c>
+      <c r="K84">
+        <v>0.776</v>
+      </c>
+      <c r="L84">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M84">
+        <v>0.414838</v>
+      </c>
+      <c r="N84">
+        <v>2.999162000000001</v>
+      </c>
+      <c r="O84">
+        <v>0.7497905000000001</v>
+      </c>
+      <c r="P84">
+        <v>2.249371500000001</v>
+      </c>
+      <c r="Q84">
+        <v>3.0253715</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3419429774583486</v>
+      </c>
+      <c r="T84">
+        <v>4.05356968557247</v>
+      </c>
+      <c r="U84">
+        <v>0.02</v>
+      </c>
+      <c r="V84">
+        <v>0.25</v>
+      </c>
+      <c r="W84">
+        <v>0.015</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>8.229718588943156</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.07371844746469612</v>
+      </c>
+      <c r="C85">
+        <v>5.896941730306587</v>
+      </c>
+      <c r="D85">
+        <v>21.74179173030659</v>
+      </c>
+      <c r="E85">
+        <v>20.89985</v>
+      </c>
+      <c r="F85">
+        <v>20.99485</v>
+      </c>
+      <c r="G85">
+        <v>5.15</v>
+      </c>
+      <c r="H85">
+        <v>25.2</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>4.19</v>
+      </c>
+      <c r="K85">
+        <v>0.776</v>
+      </c>
+      <c r="L85">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M85">
+        <v>0.4198969999999999</v>
+      </c>
+      <c r="N85">
+        <v>2.994103000000001</v>
+      </c>
+      <c r="O85">
+        <v>0.7485257500000002</v>
+      </c>
+      <c r="P85">
+        <v>2.245577250000001</v>
+      </c>
+      <c r="Q85">
+        <v>3.021577250000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3604026321452715</v>
+      </c>
+      <c r="T85">
+        <v>4.278518058800688</v>
+      </c>
+      <c r="U85">
+        <v>0.02</v>
+      </c>
+      <c r="V85">
+        <v>0.25</v>
+      </c>
+      <c r="W85">
+        <v>0.015</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>8.130565352931793</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.07358715898688951</v>
+      </c>
+      <c r="C86">
+        <v>5.664645190897318</v>
+      </c>
+      <c r="D86">
+        <v>21.76244519089732</v>
+      </c>
+      <c r="E86">
+        <v>21.1528</v>
+      </c>
+      <c r="F86">
+        <v>21.2478</v>
+      </c>
+      <c r="G86">
+        <v>5.15</v>
+      </c>
+      <c r="H86">
+        <v>25.2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>4.19</v>
+      </c>
+      <c r="K86">
+        <v>0.776</v>
+      </c>
+      <c r="L86">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M86">
+        <v>0.4249559999999999</v>
+      </c>
+      <c r="N86">
+        <v>2.989044000000001</v>
+      </c>
+      <c r="O86">
+        <v>0.7472610000000002</v>
+      </c>
+      <c r="P86">
+        <v>2.241783000000001</v>
+      </c>
+      <c r="Q86">
+        <v>3.017783000000001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3811697436680594</v>
+      </c>
+      <c r="T86">
+        <v>4.53158497868243</v>
+      </c>
+      <c r="U86">
+        <v>0.02</v>
+      </c>
+      <c r="V86">
+        <v>0.25</v>
+      </c>
+      <c r="W86">
+        <v>0.015</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>8.033772908254035</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.07345587050908291</v>
+      </c>
+      <c r="C87">
+        <v>5.432387928014819</v>
+      </c>
+      <c r="D87">
+        <v>21.78313792801481</v>
+      </c>
+      <c r="E87">
+        <v>21.40575</v>
+      </c>
+      <c r="F87">
+        <v>21.50075</v>
+      </c>
+      <c r="G87">
+        <v>5.15</v>
+      </c>
+      <c r="H87">
+        <v>25.2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>4.19</v>
+      </c>
+      <c r="K87">
+        <v>0.776</v>
+      </c>
+      <c r="L87">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M87">
+        <v>0.4300149999999999</v>
+      </c>
+      <c r="N87">
+        <v>2.983985000000001</v>
+      </c>
+      <c r="O87">
+        <v>0.7459962500000001</v>
+      </c>
+      <c r="P87">
+        <v>2.23798875</v>
+      </c>
+      <c r="Q87">
+        <v>3.01398875</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.404705803393886</v>
+      </c>
+      <c r="T87">
+        <v>4.818394154548407</v>
+      </c>
+      <c r="U87">
+        <v>0.02</v>
+      </c>
+      <c r="V87">
+        <v>0.25</v>
+      </c>
+      <c r="W87">
+        <v>0.015</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>7.939257932862811</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.0740340820312763</v>
+      </c>
+      <c r="C88">
+        <v>5.088598175093065</v>
+      </c>
+      <c r="D88">
+        <v>21.69229817509306</v>
+      </c>
+      <c r="E88">
+        <v>21.6587</v>
+      </c>
+      <c r="F88">
+        <v>21.7537</v>
+      </c>
+      <c r="G88">
+        <v>5.15</v>
+      </c>
+      <c r="H88">
+        <v>25.2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>4.19</v>
+      </c>
+      <c r="K88">
+        <v>0.776</v>
+      </c>
+      <c r="L88">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M88">
+        <v>0.45900307</v>
+      </c>
+      <c r="N88">
+        <v>2.954996930000001</v>
+      </c>
+      <c r="O88">
+        <v>0.7387492325000001</v>
+      </c>
+      <c r="P88">
+        <v>2.216247697500001</v>
+      </c>
+      <c r="Q88">
+        <v>2.992247697500001</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4316041573662592</v>
+      </c>
+      <c r="T88">
+        <v>5.146176069823809</v>
+      </c>
+      <c r="U88">
+        <v>0.0211</v>
+      </c>
+      <c r="V88">
+        <v>0.25</v>
+      </c>
+      <c r="W88">
+        <v>0.015825</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>7.437858748962181</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.07391104355346967</v>
+      </c>
+      <c r="C89">
+        <v>4.85491458657933</v>
+      </c>
+      <c r="D89">
+        <v>21.71156458657932</v>
+      </c>
+      <c r="E89">
+        <v>21.91165</v>
+      </c>
+      <c r="F89">
+        <v>22.00665</v>
+      </c>
+      <c r="G89">
+        <v>5.15</v>
+      </c>
+      <c r="H89">
+        <v>25.2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>4.19</v>
+      </c>
+      <c r="K89">
+        <v>0.776</v>
+      </c>
+      <c r="L89">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M89">
+        <v>0.4643403149999999</v>
+      </c>
+      <c r="N89">
+        <v>2.949659685000001</v>
+      </c>
+      <c r="O89">
+        <v>0.7374149212500002</v>
+      </c>
+      <c r="P89">
+        <v>2.212244763750001</v>
+      </c>
+      <c r="Q89">
+        <v>2.988244763750001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4626407196420744</v>
+      </c>
+      <c r="T89">
+        <v>5.524385972064656</v>
+      </c>
+      <c r="U89">
+        <v>0.0211</v>
+      </c>
+      <c r="V89">
+        <v>0.25</v>
+      </c>
+      <c r="W89">
+        <v>0.015825</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>7.352366119663767</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.07378800507566305</v>
+      </c>
+      <c r="C90">
+        <v>4.621265252120629</v>
+      </c>
+      <c r="D90">
+        <v>21.73086525212063</v>
+      </c>
+      <c r="E90">
+        <v>22.1646</v>
+      </c>
+      <c r="F90">
+        <v>22.2596</v>
+      </c>
+      <c r="G90">
+        <v>5.15</v>
+      </c>
+      <c r="H90">
+        <v>25.2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>4.19</v>
+      </c>
+      <c r="K90">
+        <v>0.776</v>
+      </c>
+      <c r="L90">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M90">
+        <v>0.46967756</v>
+      </c>
+      <c r="N90">
+        <v>2.944322440000001</v>
+      </c>
+      <c r="O90">
+        <v>0.7360806100000001</v>
+      </c>
+      <c r="P90">
+        <v>2.20824183</v>
+      </c>
+      <c r="Q90">
+        <v>2.98424183</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4988500422971922</v>
+      </c>
+      <c r="T90">
+        <v>5.965630858012313</v>
+      </c>
+      <c r="U90">
+        <v>0.0211</v>
+      </c>
+      <c r="V90">
+        <v>0.25</v>
+      </c>
+      <c r="W90">
+        <v>0.015825</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>7.268816504667586</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.07366496659785644</v>
+      </c>
+      <c r="C91">
+        <v>4.387650263149496</v>
+      </c>
+      <c r="D91">
+        <v>21.75020026314949</v>
+      </c>
+      <c r="E91">
+        <v>22.41755</v>
+      </c>
+      <c r="F91">
+        <v>22.51255</v>
+      </c>
+      <c r="G91">
+        <v>5.15</v>
+      </c>
+      <c r="H91">
+        <v>25.2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>4.19</v>
+      </c>
+      <c r="K91">
+        <v>0.776</v>
+      </c>
+      <c r="L91">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M91">
+        <v>0.475014805</v>
+      </c>
+      <c r="N91">
+        <v>2.938985195000001</v>
+      </c>
+      <c r="O91">
+        <v>0.7347462987500002</v>
+      </c>
+      <c r="P91">
+        <v>2.204238896250001</v>
+      </c>
+      <c r="Q91">
+        <v>2.98023889625</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5416428781623314</v>
+      </c>
+      <c r="T91">
+        <v>6.487102086859544</v>
+      </c>
+      <c r="U91">
+        <v>0.0211</v>
+      </c>
+      <c r="V91">
+        <v>0.25</v>
+      </c>
+      <c r="W91">
+        <v>0.015825</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>7.187144409109524</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.07354192812004985</v>
+      </c>
+      <c r="C92">
+        <v>4.154069711424125</v>
+      </c>
+      <c r="D92">
+        <v>21.76956971142413</v>
+      </c>
+      <c r="E92">
+        <v>22.6705</v>
+      </c>
+      <c r="F92">
+        <v>22.7655</v>
+      </c>
+      <c r="G92">
+        <v>5.15</v>
+      </c>
+      <c r="H92">
+        <v>25.2</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>4.19</v>
+      </c>
+      <c r="K92">
+        <v>0.776</v>
+      </c>
+      <c r="L92">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M92">
+        <v>0.48035205</v>
+      </c>
+      <c r="N92">
+        <v>2.933647950000001</v>
+      </c>
+      <c r="O92">
+        <v>0.7334119875000001</v>
+      </c>
+      <c r="P92">
+        <v>2.2002359625</v>
+      </c>
+      <c r="Q92">
+        <v>2.976235962500001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5929942812004986</v>
+      </c>
+      <c r="T92">
+        <v>7.112867561476222</v>
+      </c>
+      <c r="U92">
+        <v>0.0211</v>
+      </c>
+      <c r="V92">
+        <v>0.25</v>
+      </c>
+      <c r="W92">
+        <v>0.015825</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>7.107287249008306</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.07341888964224323</v>
+      </c>
+      <c r="C93">
+        <v>3.920523689029896</v>
+      </c>
+      <c r="D93">
+        <v>21.78897368902989</v>
+      </c>
+      <c r="E93">
+        <v>22.92345</v>
+      </c>
+      <c r="F93">
+        <v>23.01845</v>
+      </c>
+      <c r="G93">
+        <v>5.15</v>
+      </c>
+      <c r="H93">
+        <v>25.2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>4.19</v>
+      </c>
+      <c r="K93">
+        <v>0.776</v>
+      </c>
+      <c r="L93">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M93">
+        <v>0.485689295</v>
+      </c>
+      <c r="N93">
+        <v>2.928310705000001</v>
+      </c>
+      <c r="O93">
+        <v>0.7320776762500002</v>
+      </c>
+      <c r="P93">
+        <v>2.19623302875</v>
+      </c>
+      <c r="Q93">
+        <v>2.972233028750001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6557571071360361</v>
+      </c>
+      <c r="T93">
+        <v>7.87769203045216</v>
+      </c>
+      <c r="U93">
+        <v>0.0211</v>
+      </c>
+      <c r="V93">
+        <v>0.25</v>
+      </c>
+      <c r="W93">
+        <v>0.015825</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>7.029185191326897</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.07329585116443661</v>
+      </c>
+      <c r="C94">
+        <v>3.687012288380757</v>
+      </c>
+      <c r="D94">
+        <v>21.80841228838075</v>
+      </c>
+      <c r="E94">
+        <v>23.1764</v>
+      </c>
+      <c r="F94">
+        <v>23.2714</v>
+      </c>
+      <c r="G94">
+        <v>5.15</v>
+      </c>
+      <c r="H94">
+        <v>25.2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>4.19</v>
+      </c>
+      <c r="K94">
+        <v>0.776</v>
+      </c>
+      <c r="L94">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M94">
+        <v>0.49102654</v>
+      </c>
+      <c r="N94">
+        <v>2.922973460000001</v>
+      </c>
+      <c r="O94">
+        <v>0.7307433650000001</v>
+      </c>
+      <c r="P94">
+        <v>2.192230095</v>
+      </c>
+      <c r="Q94">
+        <v>2.968230095</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7342106395554581</v>
+      </c>
+      <c r="T94">
+        <v>8.833722616672084</v>
+      </c>
+      <c r="U94">
+        <v>0.0211</v>
+      </c>
+      <c r="V94">
+        <v>0.25</v>
+      </c>
+      <c r="W94">
+        <v>0.015825</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>6.952781004464648</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.07317281268662999</v>
+      </c>
+      <c r="C95">
+        <v>3.453535602220761</v>
+      </c>
+      <c r="D95">
+        <v>21.82788560222076</v>
+      </c>
+      <c r="E95">
+        <v>23.42935</v>
+      </c>
+      <c r="F95">
+        <v>23.52435</v>
+      </c>
+      <c r="G95">
+        <v>5.15</v>
+      </c>
+      <c r="H95">
+        <v>25.2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>4.19</v>
+      </c>
+      <c r="K95">
+        <v>0.776</v>
+      </c>
+      <c r="L95">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M95">
+        <v>0.496363785</v>
+      </c>
+      <c r="N95">
+        <v>2.917636215000001</v>
+      </c>
+      <c r="O95">
+        <v>0.7294090537500002</v>
+      </c>
+      <c r="P95">
+        <v>2.18822716125</v>
+      </c>
+      <c r="Q95">
+        <v>2.96422716125</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8350794669518578</v>
+      </c>
+      <c r="T95">
+        <v>10.06290479895484</v>
+      </c>
+      <c r="U95">
+        <v>0.0211</v>
+      </c>
+      <c r="V95">
+        <v>0.25</v>
+      </c>
+      <c r="W95">
+        <v>0.015825</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>6.878019918395136</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.07304977420882339</v>
+      </c>
+      <c r="C96">
+        <v>3.220093723625492</v>
+      </c>
+      <c r="D96">
+        <v>21.84739372362549</v>
+      </c>
+      <c r="E96">
+        <v>23.6823</v>
+      </c>
+      <c r="F96">
+        <v>23.7773</v>
+      </c>
+      <c r="G96">
+        <v>5.15</v>
+      </c>
+      <c r="H96">
+        <v>25.2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>4.19</v>
+      </c>
+      <c r="K96">
+        <v>0.776</v>
+      </c>
+      <c r="L96">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M96">
+        <v>0.50170103</v>
+      </c>
+      <c r="N96">
+        <v>2.912298970000001</v>
+      </c>
+      <c r="O96">
+        <v>0.7280747425000001</v>
+      </c>
+      <c r="P96">
+        <v>2.184224227500001</v>
+      </c>
+      <c r="Q96">
+        <v>2.9602242275</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.969571236813724</v>
+      </c>
+      <c r="T96">
+        <v>11.70181437533186</v>
+      </c>
+      <c r="U96">
+        <v>0.0211</v>
+      </c>
+      <c r="V96">
+        <v>0.25</v>
+      </c>
+      <c r="W96">
+        <v>0.015825</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>6.804849493731358</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.0729267357310168</v>
+      </c>
+      <c r="C97">
+        <v>2.986686746003588</v>
+      </c>
+      <c r="D97">
+        <v>21.86693674600359</v>
+      </c>
+      <c r="E97">
+        <v>23.93525</v>
+      </c>
+      <c r="F97">
+        <v>24.03025</v>
+      </c>
+      <c r="G97">
+        <v>5.15</v>
+      </c>
+      <c r="H97">
+        <v>25.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>4.19</v>
+      </c>
+      <c r="K97">
+        <v>0.776</v>
+      </c>
+      <c r="L97">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M97">
+        <v>0.507038275</v>
+      </c>
+      <c r="N97">
+        <v>2.906961725</v>
+      </c>
+      <c r="O97">
+        <v>0.7267404312500001</v>
+      </c>
+      <c r="P97">
+        <v>2.18022129375</v>
+      </c>
+      <c r="Q97">
+        <v>2.956221293750001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.157859714620337</v>
+      </c>
+      <c r="T97">
+        <v>13.99628778225968</v>
+      </c>
+      <c r="U97">
+        <v>0.0211</v>
+      </c>
+      <c r="V97">
+        <v>0.25</v>
+      </c>
+      <c r="W97">
+        <v>0.015825</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>6.733219499060501</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.07280369725321018</v>
+      </c>
+      <c r="C98">
+        <v>2.753314763098192</v>
+      </c>
+      <c r="D98">
+        <v>21.88651476309819</v>
+      </c>
+      <c r="E98">
+        <v>24.1882</v>
+      </c>
+      <c r="F98">
+        <v>24.2832</v>
+      </c>
+      <c r="G98">
+        <v>5.15</v>
+      </c>
+      <c r="H98">
+        <v>25.2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>4.19</v>
+      </c>
+      <c r="K98">
+        <v>0.776</v>
+      </c>
+      <c r="L98">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M98">
+        <v>0.51237552</v>
+      </c>
+      <c r="N98">
+        <v>2.901624480000001</v>
+      </c>
+      <c r="O98">
+        <v>0.7254061200000002</v>
+      </c>
+      <c r="P98">
+        <v>2.17621836</v>
+      </c>
+      <c r="Q98">
+        <v>2.952218360000001</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.440292431330253</v>
+      </c>
+      <c r="T98">
+        <v>17.43799789265136</v>
+      </c>
+      <c r="U98">
+        <v>0.0211</v>
+      </c>
+      <c r="V98">
+        <v>0.25</v>
+      </c>
+      <c r="W98">
+        <v>0.015825</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>6.663081795945287</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.07268065877540356</v>
+      </c>
+      <c r="C99">
+        <v>2.519977868988491</v>
+      </c>
+      <c r="D99">
+        <v>21.90612786898849</v>
+      </c>
+      <c r="E99">
+        <v>24.44115</v>
+      </c>
+      <c r="F99">
+        <v>24.53615</v>
+      </c>
+      <c r="G99">
+        <v>5.15</v>
+      </c>
+      <c r="H99">
+        <v>25.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>4.19</v>
+      </c>
+      <c r="K99">
+        <v>0.776</v>
+      </c>
+      <c r="L99">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M99">
+        <v>0.517712765</v>
+      </c>
+      <c r="N99">
+        <v>2.896287235000001</v>
+      </c>
+      <c r="O99">
+        <v>0.7240718087500002</v>
+      </c>
+      <c r="P99">
+        <v>2.172215426250001</v>
+      </c>
+      <c r="Q99">
+        <v>2.948215426250001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.911013625846784</v>
+      </c>
+      <c r="T99">
+        <v>23.17418140997089</v>
+      </c>
+      <c r="U99">
+        <v>0.0211</v>
+      </c>
+      <c r="V99">
+        <v>0.25</v>
+      </c>
+      <c r="W99">
+        <v>0.015825</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>6.594390231038636</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.07255762029759696</v>
+      </c>
+      <c r="C100">
+        <v>2.286676158091169</v>
+      </c>
+      <c r="D100">
+        <v>21.92577615809117</v>
+      </c>
+      <c r="E100">
+        <v>24.6941</v>
+      </c>
+      <c r="F100">
+        <v>24.7891</v>
+      </c>
+      <c r="G100">
+        <v>5.15</v>
+      </c>
+      <c r="H100">
+        <v>25.2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>4.19</v>
+      </c>
+      <c r="K100">
+        <v>0.776</v>
+      </c>
+      <c r="L100">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M100">
+        <v>0.52305001</v>
+      </c>
+      <c r="N100">
+        <v>2.890949990000001</v>
+      </c>
+      <c r="O100">
+        <v>0.7227374975000002</v>
+      </c>
+      <c r="P100">
+        <v>2.1682124925</v>
+      </c>
+      <c r="Q100">
+        <v>2.9442124925</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.852456014879845</v>
+      </c>
+      <c r="T100">
+        <v>34.64654844460995</v>
+      </c>
+      <c r="U100">
+        <v>0.0211</v>
+      </c>
+      <c r="V100">
+        <v>0.25</v>
+      </c>
+      <c r="W100">
+        <v>0.015825</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>6.527100534803547</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.07243458181979034</v>
+      </c>
+      <c r="C101">
+        <v>2.053409725161995</v>
+      </c>
+      <c r="D101">
+        <v>21.94545972516199</v>
+      </c>
+      <c r="E101">
+        <v>24.94705</v>
+      </c>
+      <c r="F101">
+        <v>25.04205</v>
+      </c>
+      <c r="G101">
+        <v>5.15</v>
+      </c>
+      <c r="H101">
+        <v>25.2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>4.19</v>
+      </c>
+      <c r="K101">
+        <v>0.776</v>
+      </c>
+      <c r="L101">
+        <v>3.414000000000001</v>
+      </c>
+      <c r="M101">
+        <v>0.5283872550000001</v>
+      </c>
+      <c r="N101">
+        <v>2.885612745</v>
+      </c>
+      <c r="O101">
+        <v>0.7214031862500001</v>
+      </c>
+      <c r="P101">
+        <v>2.164209558750001</v>
+      </c>
+      <c r="Q101">
+        <v>2.94020955875</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.676783181979029</v>
+      </c>
+      <c r="T101">
+        <v>69.06364954852711</v>
+      </c>
+      <c r="U101">
+        <v>0.0211</v>
+      </c>
+      <c r="V101">
+        <v>0.25</v>
+      </c>
+      <c r="W101">
+        <v>0.015825</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>6.461170226371187</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
